--- a/版本更新说明/客户版本更新记录.xlsx
+++ b/版本更新说明/客户版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\hy_document\版本更新说明\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8108000_{A2DA1DF2-7FBA-4B04-892C-D57F307C9928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4494EC60-E44A-40D0-8D34-68090ABC51D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="853" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="脚本记录" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">版本更新!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">版本更新!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">餐厅信息!$A$1:$C$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">脚本记录!$A$1:$C$20</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="335">
   <si>
     <t>已解决</t>
   </si>
@@ -906,18 +906,6 @@
   <si>
     <t>宜兴市醉翁亭大酒店-广汇店</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>beta</t>
@@ -1000,37 +988,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宜兴市荆溪宾馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金太阳酒楼（清湖路店）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">宜兴市吴记饭店  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新8.1.sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜兴市醉翁亭大酒店-广汇店</t>
-  </si>
-  <si>
-    <t>宜兴市吴记饭店</t>
-  </si>
-  <si>
-    <t>宜兴市藏阿麽牦牛肉</t>
-  </si>
-  <si>
-    <t>宜兴市君悦天禧酒店</t>
-  </si>
-  <si>
-    <t>金太阳酒楼（清湖路店）</t>
-  </si>
-  <si>
     <t>宜兴市天水花园大酒店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,9 +1027,6 @@
     <t>宜城镇</t>
   </si>
   <si>
-    <t>(中餐厅) - 宜兴市君悦天禧酒店</t>
-  </si>
-  <si>
     <t>(中餐厅) - 宜兴市吴记饭店</t>
   </si>
   <si>
@@ -1145,14 +1103,6 @@
   </si>
   <si>
     <t>宜兴喜庆楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方茶事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁山国际大酒店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1160,28 +1110,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>宜兴喜庆楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜兴市吴记饭店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宜兴市吴记饭店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宜兴市君悦天禧酒店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜兴市君悦天禧酒店</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜兴市藏阿麽牦牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宜兴市藏阿麽牦牛肉</t>
@@ -1197,10 +1131,6 @@
   </si>
   <si>
     <t>宜兴氿悦宾馆餐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜兴氿悦宾馆餐厅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1331,6 +1261,26 @@
   </si>
   <si>
     <t>http://app.haoyuesoft.com/cis_war/hy_ccep_cis.war</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(中餐厅) - 宜兴市君悦天禧酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(中餐厅) - 宜兴市君悦天禧酒店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kerry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独创建一个版本更新（预定拆台需求）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1491,7 +1441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,18 +1469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,7 +1579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,14 +1697,9 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1826,27 +1759,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,6 +1771,15 @@
     <xf numFmtId="177" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1869,6 +1790,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2204,60 +2137,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="28.8" thickBot="1">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
     </row>
     <row r="2" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="J2" s="68" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="J2" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="70"/>
-      <c r="R2" s="68" t="s">
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="R2" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="70"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="69"/>
       <c r="AA2" t="s">
         <v>219</v>
       </c>
@@ -2340,49 +2273,49 @@
       </c>
     </row>
     <row r="4" spans="2:30" ht="18" thickBot="1">
-      <c r="B4" s="77"/>
-      <c r="C4" s="49">
+      <c r="B4" s="70"/>
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="47">
         <v>2</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="47">
         <v>3</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="47">
         <v>4</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="47">
         <v>5</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="46">
         <v>6</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="51">
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="48">
         <v>1</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="48">
         <v>2</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="46">
         <v>3</v>
       </c>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="51">
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="48">
         <v>1</v>
       </c>
-      <c r="W4" s="51">
+      <c r="W4" s="48">
         <v>2</v>
       </c>
-      <c r="X4" s="49">
+      <c r="X4" s="46">
         <v>3</v>
       </c>
       <c r="AB4">
@@ -2393,7 +2326,7 @@
       </c>
     </row>
     <row r="5" spans="2:30" ht="14.4" thickBot="1">
-      <c r="B5" s="78"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="30" t="s">
         <v>122</v>
       </c>
@@ -2412,10 +2345,10 @@
       <c r="H5" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="33" t="s">
         <v>123</v>
       </c>
@@ -2425,10 +2358,10 @@
       <c r="P5" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
       <c r="V5" s="33" t="s">
         <v>128</v>
       </c>
@@ -2446,69 +2379,69 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="18" thickBot="1">
-      <c r="B6" s="49">
+      <c r="B6" s="46">
         <v>7</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="47">
         <v>8</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="47">
         <v>9</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="47">
         <v>10</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="47">
         <v>11</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="46">
         <v>12</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="46">
         <v>13</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47">
         <v>4</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="47">
         <v>5</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="47">
         <v>6</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="46">
         <v>7</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="46">
         <v>8</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="47">
         <v>9</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="47">
         <v>10</v>
       </c>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50">
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47">
         <v>4</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="46">
         <v>5</v>
       </c>
-      <c r="T6" s="49">
+      <c r="T6" s="46">
         <v>6</v>
       </c>
-      <c r="U6" s="50">
+      <c r="U6" s="47">
         <v>7</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="47">
         <v>8</v>
       </c>
-      <c r="W6" s="50">
+      <c r="W6" s="47">
         <v>9</v>
       </c>
-      <c r="X6" s="50">
+      <c r="X6" s="47">
         <v>10</v>
       </c>
       <c r="AB6">
@@ -2584,69 +2517,69 @@
       </c>
     </row>
     <row r="8" spans="2:30" ht="18" thickBot="1">
-      <c r="B8" s="49">
+      <c r="B8" s="46">
         <v>14</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="47">
         <v>15</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="47">
         <v>16</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="47">
         <v>17</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="47">
         <v>18</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="46">
         <v>19</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="46">
         <v>20</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50">
+      <c r="I8" s="47"/>
+      <c r="J8" s="47">
         <v>11</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="47">
         <v>12</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="47">
         <v>13</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="46">
         <v>14</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8" s="46">
         <v>15</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="47">
         <v>16</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="47">
         <v>17</v>
       </c>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50">
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47">
         <v>11</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="46">
         <v>12</v>
       </c>
-      <c r="T8" s="49">
+      <c r="T8" s="46">
         <v>13</v>
       </c>
-      <c r="U8" s="50">
+      <c r="U8" s="47">
         <v>14</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8" s="47">
         <v>15</v>
       </c>
-      <c r="W8" s="50">
+      <c r="W8" s="47">
         <v>16</v>
       </c>
-      <c r="X8" s="50">
+      <c r="X8" s="47">
         <v>17</v>
       </c>
     </row>
@@ -2728,69 +2661,69 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="18" thickBot="1">
-      <c r="B10" s="49">
+      <c r="B10" s="46">
         <v>21</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="47">
         <v>22</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="47">
         <v>23</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="47">
         <v>24</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="47">
         <v>25</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="46">
         <v>26</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="46">
         <v>27</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47">
         <v>18</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="47">
         <v>19</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="47">
         <v>20</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="46">
         <v>21</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="46">
         <v>22</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="47">
         <v>23</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="47">
         <v>24</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50">
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47">
         <v>18</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="46">
         <v>19</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="46">
         <v>20</v>
       </c>
-      <c r="U10" s="50">
+      <c r="U10" s="47">
         <v>21</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="47">
         <v>22</v>
       </c>
-      <c r="W10" s="50">
+      <c r="W10" s="47">
         <v>23</v>
       </c>
-      <c r="X10" s="50">
+      <c r="X10" s="47">
         <v>24</v>
       </c>
       <c r="AB10">
@@ -2878,57 +2811,57 @@
       </c>
     </row>
     <row r="12" spans="2:30" ht="18" thickBot="1">
-      <c r="B12" s="52">
+      <c r="B12" s="49">
         <v>28</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="47">
         <v>29</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <v>30</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="47">
         <v>31</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="52">
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49">
         <v>25</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="48">
         <v>26</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="48">
         <v>27</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="48">
         <v>28</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="52">
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="49">
         <v>25</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="48">
         <v>26</v>
       </c>
-      <c r="T12" s="51">
+      <c r="T12" s="48">
         <v>27</v>
       </c>
-      <c r="U12" s="51">
+      <c r="U12" s="48">
         <v>28</v>
       </c>
-      <c r="V12" s="51">
+      <c r="V12" s="48">
         <v>29</v>
       </c>
-      <c r="W12" s="51">
+      <c r="W12" s="48">
         <v>30</v>
       </c>
-      <c r="X12" s="49">
+      <c r="X12" s="46">
         <v>31</v>
       </c>
       <c r="AB12">
@@ -2939,57 +2872,57 @@
       </c>
     </row>
     <row r="13" spans="2:30" ht="15.6" thickBot="1">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="57" t="s">
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="58" t="s">
+      <c r="L13" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="57" t="s">
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="S13" s="58" t="s">
+      <c r="S13" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="T13" s="58" t="s">
+      <c r="T13" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="U13" s="58" t="s">
+      <c r="U13" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="V13" s="58" t="s">
+      <c r="V13" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="W13" s="58" t="s">
+      <c r="W13" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="X13" s="58" t="s">
+      <c r="X13" s="55" t="s">
         <v>166</v>
       </c>
       <c r="AB13">
@@ -3004,33 +2937,33 @@
     </row>
     <row r="14" spans="2:30" ht="14.4" thickBot="1"/>
     <row r="15" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="J15" s="68" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="J15" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-      <c r="R15" s="68" t="s">
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="69"/>
+      <c r="R15" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="70"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="69"/>
     </row>
     <row r="16" spans="2:30" ht="16.2" thickBot="1">
       <c r="B16" s="28" t="s">
@@ -3098,616 +3031,616 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="18" thickBot="1">
-      <c r="B17" s="52">
+      <c r="B17" s="49">
         <v>1</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="48">
         <v>2</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="48">
         <v>3</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="48">
         <v>4</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="46">
         <v>5</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="48">
         <v>6</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="46">
         <v>7</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="49">
+      <c r="I17" s="50"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="46">
         <v>1</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="48">
         <v>2</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="48">
         <v>3</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="48">
         <v>4</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="46">
         <v>5</v>
       </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="51">
+      <c r="Q17" s="50"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="48">
         <v>1</v>
       </c>
-      <c r="X17" s="49">
+      <c r="X17" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="60" t="s">
+      <c r="I18" s="50"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="N18" s="58" t="s">
+      <c r="N18" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="O18" s="60" t="s">
+      <c r="O18" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="60" t="s">
+      <c r="Q18" s="50"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="X18" s="58" t="s">
+      <c r="X18" s="55" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:24" ht="18" thickBot="1">
-      <c r="B19" s="52">
+      <c r="B19" s="49">
         <v>8</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="48">
         <v>9</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="48">
         <v>10</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="48">
         <v>11</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="48">
         <v>12</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="48">
         <v>13</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="46">
         <v>14</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="52">
+      <c r="I19" s="50"/>
+      <c r="J19" s="49">
         <v>6</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="48">
         <v>7</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="48">
         <v>8</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="48">
         <v>9</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N19" s="48">
         <v>10</v>
       </c>
-      <c r="O19" s="51">
+      <c r="O19" s="48">
         <v>11</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="46">
         <v>12</v>
       </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="52">
+      <c r="Q19" s="50"/>
+      <c r="R19" s="49">
         <v>3</v>
       </c>
-      <c r="S19" s="51">
+      <c r="S19" s="48">
         <v>4</v>
       </c>
-      <c r="T19" s="51">
+      <c r="T19" s="48">
         <v>5</v>
       </c>
-      <c r="U19" s="51">
+      <c r="U19" s="48">
         <v>6</v>
       </c>
-      <c r="V19" s="51">
+      <c r="V19" s="48">
         <v>7</v>
       </c>
-      <c r="W19" s="51">
+      <c r="W19" s="48">
         <v>8</v>
       </c>
-      <c r="X19" s="49">
+      <c r="X19" s="46">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="57" t="s">
+      <c r="I20" s="50"/>
+      <c r="J20" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="58" t="s">
+      <c r="L20" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="N20" s="58" t="s">
+      <c r="N20" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="O20" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="P20" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="57" t="s">
+      <c r="Q20" s="50"/>
+      <c r="R20" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="S20" s="58" t="s">
+      <c r="S20" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="T20" s="58" t="s">
+      <c r="T20" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="U20" s="61" t="s">
+      <c r="U20" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="V20" s="58" t="s">
+      <c r="V20" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="W20" s="58" t="s">
+      <c r="W20" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="X20" s="58" t="s">
+      <c r="X20" s="55" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:24" ht="18" thickBot="1">
-      <c r="B21" s="52">
+      <c r="B21" s="49">
         <v>15</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="48">
         <v>16</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="48">
         <v>17</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="48">
         <v>18</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="48">
         <v>19</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="48">
         <v>20</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="46">
         <v>21</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="52">
+      <c r="I21" s="50"/>
+      <c r="J21" s="49">
         <v>13</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="48">
         <v>14</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="48">
         <v>15</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="48">
         <v>16</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="48">
         <v>17</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="48">
         <v>18</v>
       </c>
-      <c r="P21" s="49">
+      <c r="P21" s="46">
         <v>19</v>
       </c>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="52">
+      <c r="Q21" s="50"/>
+      <c r="R21" s="49">
         <v>10</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="48">
         <v>11</v>
       </c>
-      <c r="T21" s="51">
+      <c r="T21" s="48">
         <v>12</v>
       </c>
-      <c r="U21" s="51">
+      <c r="U21" s="48">
         <v>13</v>
       </c>
-      <c r="V21" s="51">
+      <c r="V21" s="48">
         <v>14</v>
       </c>
-      <c r="W21" s="51">
+      <c r="W21" s="48">
         <v>15</v>
       </c>
-      <c r="X21" s="49">
+      <c r="X21" s="46">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="62" t="s">
+      <c r="I22" s="50"/>
+      <c r="J22" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L22" s="58" t="s">
+      <c r="L22" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="N22" s="58" t="s">
+      <c r="N22" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="58" t="s">
+      <c r="O22" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="57" t="s">
+      <c r="Q22" s="50"/>
+      <c r="R22" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="S22" s="58" t="s">
+      <c r="S22" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="T22" s="58" t="s">
+      <c r="T22" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="U22" s="58" t="s">
+      <c r="U22" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="V22" s="58" t="s">
+      <c r="V22" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="W22" s="58" t="s">
+      <c r="W22" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="X22" s="58" t="s">
+      <c r="X22" s="55" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="18" thickBot="1">
-      <c r="B23" s="52">
+      <c r="B23" s="49">
         <v>22</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="48">
         <v>23</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="48">
         <v>24</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="48">
         <v>25</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="48">
         <v>26</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="48">
         <v>27</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="46">
         <v>28</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="52">
+      <c r="I23" s="50"/>
+      <c r="J23" s="49">
         <v>20</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="48">
         <v>21</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="48">
         <v>22</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="48">
         <v>23</v>
       </c>
-      <c r="N23" s="51">
+      <c r="N23" s="48">
         <v>24</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="48">
         <v>25</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="46">
         <v>26</v>
       </c>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="52">
+      <c r="Q23" s="50"/>
+      <c r="R23" s="49">
         <v>17</v>
       </c>
-      <c r="S23" s="49">
+      <c r="S23" s="46">
         <v>18</v>
       </c>
-      <c r="T23" s="51">
+      <c r="T23" s="48">
         <v>19</v>
       </c>
-      <c r="U23" s="51">
+      <c r="U23" s="48">
         <v>20</v>
       </c>
-      <c r="V23" s="51">
+      <c r="V23" s="48">
         <v>21</v>
       </c>
-      <c r="W23" s="51">
+      <c r="W23" s="48">
         <v>22</v>
       </c>
-      <c r="X23" s="49">
+      <c r="X23" s="46">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="57" t="s">
+      <c r="I24" s="50"/>
+      <c r="J24" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="K24" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="58" t="s">
+      <c r="L24" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="M24" s="58" t="s">
+      <c r="M24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="N24" s="58" t="s">
+      <c r="N24" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="O24" s="58" t="s">
+      <c r="O24" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="58" t="s">
+      <c r="P24" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="62" t="s">
+      <c r="Q24" s="50"/>
+      <c r="R24" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="S24" s="59" t="s">
+      <c r="S24" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="T24" s="58" t="s">
+      <c r="T24" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="U24" s="58" t="s">
+      <c r="U24" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="V24" s="61" t="s">
+      <c r="V24" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="W24" s="58" t="s">
+      <c r="W24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="X24" s="58" t="s">
+      <c r="X24" s="55" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="25" spans="2:24" ht="18" thickBot="1">
-      <c r="B25" s="52">
+      <c r="B25" s="49">
         <v>29</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="48">
         <v>30</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="52">
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="49">
         <v>27</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="48">
         <v>28</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="48">
         <v>29</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="48">
         <v>30</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="48">
         <v>31</v>
       </c>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="52">
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="49">
         <v>24</v>
       </c>
-      <c r="S25" s="51">
+      <c r="S25" s="48">
         <v>25</v>
       </c>
-      <c r="T25" s="51">
+      <c r="T25" s="48">
         <v>26</v>
       </c>
-      <c r="U25" s="51">
+      <c r="U25" s="48">
         <v>27</v>
       </c>
-      <c r="V25" s="51">
+      <c r="V25" s="48">
         <v>28</v>
       </c>
-      <c r="W25" s="51">
+      <c r="W25" s="48">
         <v>29</v>
       </c>
-      <c r="X25" s="49">
+      <c r="X25" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:24" ht="15.6" thickBot="1">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="57" t="s">
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="58" t="s">
+      <c r="L26" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="M26" s="58" t="s">
+      <c r="M26" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="N26" s="58" t="s">
+      <c r="N26" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="57" t="s">
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="S26" s="58" t="s">
+      <c r="S26" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="T26" s="58" t="s">
+      <c r="T26" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="58" t="s">
+      <c r="U26" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="V26" s="58" t="s">
+      <c r="V26" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="W26" s="58" t="s">
+      <c r="W26" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="X26" s="58" t="s">
+      <c r="X26" s="55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3715,33 +3648,33 @@
       <c r="B27" s="39"/>
     </row>
     <row r="28" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="J28" s="68" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="J28" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="70"/>
-      <c r="R28" s="68" t="s">
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
+      <c r="R28" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="70"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
     </row>
     <row r="29" spans="2:24" ht="16.2" thickBot="1">
       <c r="B29" s="28" t="s">
@@ -3809,702 +3742,702 @@
       </c>
     </row>
     <row r="30" spans="2:24" ht="18" thickBot="1">
-      <c r="B30" s="52">
+      <c r="B30" s="49">
         <v>1</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="48">
         <v>2</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="48">
         <v>3</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="48">
         <v>4</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="48">
         <v>5</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="48">
         <v>6</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="46">
         <v>7</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="51">
+      <c r="I30" s="50"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="48">
         <v>1</v>
       </c>
-      <c r="N30" s="51">
+      <c r="N30" s="48">
         <v>2</v>
       </c>
-      <c r="O30" s="51">
+      <c r="O30" s="48">
         <v>3</v>
       </c>
-      <c r="P30" s="49">
+      <c r="P30" s="46">
         <v>4</v>
       </c>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="49">
+      <c r="Q30" s="50"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="60" t="s">
+      <c r="I31" s="50"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="N31" s="58" t="s">
+      <c r="N31" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="O31" s="58" t="s">
+      <c r="O31" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="58" t="s">
+      <c r="P31" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="58" t="s">
+      <c r="Q31" s="50"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:24" ht="18" thickBot="1">
-      <c r="B32" s="52">
+      <c r="B32" s="49">
         <v>8</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="48">
         <v>9</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="48">
         <v>10</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="48">
         <v>11</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="48">
         <v>12</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="48">
         <v>13</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="46">
         <v>14</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="52">
+      <c r="I32" s="50"/>
+      <c r="J32" s="49">
         <v>5</v>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="48">
         <v>6</v>
       </c>
-      <c r="L32" s="51">
+      <c r="L32" s="48">
         <v>7</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="48">
         <v>8</v>
       </c>
-      <c r="N32" s="51">
+      <c r="N32" s="48">
         <v>9</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="48">
         <v>10</v>
       </c>
-      <c r="P32" s="49">
+      <c r="P32" s="46">
         <v>11</v>
       </c>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="52">
+      <c r="Q32" s="50"/>
+      <c r="R32" s="49">
         <v>2</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="48">
         <v>3</v>
       </c>
-      <c r="T32" s="51">
+      <c r="T32" s="48">
         <v>4</v>
       </c>
-      <c r="U32" s="51">
+      <c r="U32" s="48">
         <v>5</v>
       </c>
-      <c r="V32" s="51">
+      <c r="V32" s="48">
         <v>6</v>
       </c>
-      <c r="W32" s="51">
+      <c r="W32" s="48">
         <v>7</v>
       </c>
-      <c r="X32" s="49">
+      <c r="X32" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="57" t="s">
+      <c r="I33" s="50"/>
+      <c r="J33" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="K33" s="58" t="s">
+      <c r="K33" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="M33" s="58" t="s">
+      <c r="M33" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="N33" s="58" t="s">
+      <c r="N33" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="O33" s="58" t="s">
+      <c r="O33" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="P33" s="58" t="s">
+      <c r="P33" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="57" t="s">
+      <c r="Q33" s="50"/>
+      <c r="R33" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="S33" s="58" t="s">
+      <c r="S33" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="T33" s="58" t="s">
+      <c r="T33" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="U33" s="58" t="s">
+      <c r="U33" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="V33" s="58" t="s">
+      <c r="V33" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="W33" s="58" t="s">
+      <c r="W33" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="X33" s="61" t="s">
+      <c r="X33" s="58" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:24" ht="18" thickBot="1">
-      <c r="B34" s="52">
+      <c r="B34" s="49">
         <v>15</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="48">
         <v>16</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="48">
         <v>17</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="48">
         <v>18</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="48">
         <v>19</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="48">
         <v>20</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="46">
         <v>21</v>
       </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="52">
+      <c r="I34" s="50"/>
+      <c r="J34" s="49">
         <v>12</v>
       </c>
-      <c r="K34" s="51">
+      <c r="K34" s="48">
         <v>13</v>
       </c>
-      <c r="L34" s="51">
+      <c r="L34" s="48">
         <v>14</v>
       </c>
-      <c r="M34" s="51">
+      <c r="M34" s="48">
         <v>15</v>
       </c>
-      <c r="N34" s="51">
+      <c r="N34" s="48">
         <v>16</v>
       </c>
-      <c r="O34" s="51">
+      <c r="O34" s="48">
         <v>17</v>
       </c>
-      <c r="P34" s="49">
+      <c r="P34" s="46">
         <v>18</v>
       </c>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="52">
+      <c r="Q34" s="50"/>
+      <c r="R34" s="49">
         <v>9</v>
       </c>
-      <c r="S34" s="51">
+      <c r="S34" s="48">
         <v>10</v>
       </c>
-      <c r="T34" s="51">
+      <c r="T34" s="48">
         <v>11</v>
       </c>
-      <c r="U34" s="51">
+      <c r="U34" s="48">
         <v>12</v>
       </c>
-      <c r="V34" s="51">
+      <c r="V34" s="48">
         <v>13</v>
       </c>
-      <c r="W34" s="51">
+      <c r="W34" s="48">
         <v>14</v>
       </c>
-      <c r="X34" s="49">
+      <c r="X34" s="46">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="57" t="s">
+      <c r="I35" s="50"/>
+      <c r="J35" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="K35" s="58" t="s">
+      <c r="K35" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="L35" s="58" t="s">
+      <c r="L35" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="M35" s="58" t="s">
+      <c r="M35" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="N35" s="58" t="s">
+      <c r="N35" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="O35" s="59" t="s">
+      <c r="O35" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="P35" s="58" t="s">
+      <c r="P35" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="57" t="s">
+      <c r="Q35" s="50"/>
+      <c r="R35" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="S35" s="60" t="s">
+      <c r="S35" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="T35" s="58" t="s">
+      <c r="T35" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="U35" s="58" t="s">
+      <c r="U35" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="V35" s="58" t="s">
+      <c r="V35" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="W35" s="58" t="s">
+      <c r="W35" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="X35" s="58" t="s">
+      <c r="X35" s="55" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="18" thickBot="1">
-      <c r="B36" s="52">
+      <c r="B36" s="49">
         <v>22</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="48">
         <v>23</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="48">
         <v>24</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="48">
         <v>25</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="48">
         <v>26</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="48">
         <v>27</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="46">
         <v>28</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="52">
+      <c r="I36" s="50"/>
+      <c r="J36" s="49">
         <v>19</v>
       </c>
-      <c r="K36" s="51">
+      <c r="K36" s="48">
         <v>20</v>
       </c>
-      <c r="L36" s="51">
+      <c r="L36" s="48">
         <v>21</v>
       </c>
-      <c r="M36" s="51">
+      <c r="M36" s="48">
         <v>22</v>
       </c>
-      <c r="N36" s="51">
+      <c r="N36" s="48">
         <v>23</v>
       </c>
-      <c r="O36" s="51">
+      <c r="O36" s="48">
         <v>24</v>
       </c>
-      <c r="P36" s="49">
+      <c r="P36" s="46">
         <v>25</v>
       </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="52">
+      <c r="Q36" s="50"/>
+      <c r="R36" s="49">
         <v>16</v>
       </c>
-      <c r="S36" s="51">
+      <c r="S36" s="48">
         <v>17</v>
       </c>
-      <c r="T36" s="51">
+      <c r="T36" s="48">
         <v>18</v>
       </c>
-      <c r="U36" s="51">
+      <c r="U36" s="48">
         <v>19</v>
       </c>
-      <c r="V36" s="51">
+      <c r="V36" s="48">
         <v>20</v>
       </c>
-      <c r="W36" s="51">
+      <c r="W36" s="48">
         <v>21</v>
       </c>
-      <c r="X36" s="49">
+      <c r="X36" s="46">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="58" t="s">
+      <c r="H37" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="57" t="s">
+      <c r="I37" s="50"/>
+      <c r="J37" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="K37" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="L37" s="58" t="s">
+      <c r="L37" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="M37" s="58" t="s">
+      <c r="M37" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="N37" s="61" t="s">
+      <c r="N37" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="O37" s="58" t="s">
+      <c r="O37" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="P37" s="59" t="s">
+      <c r="P37" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="57" t="s">
+      <c r="Q37" s="50"/>
+      <c r="R37" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="S37" s="58" t="s">
+      <c r="S37" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="T37" s="58" t="s">
+      <c r="T37" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="U37" s="58" t="s">
+      <c r="U37" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="V37" s="58" t="s">
+      <c r="V37" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="W37" s="58" t="s">
+      <c r="W37" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="X37" s="58" t="s">
+      <c r="X37" s="55" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:24" ht="18" thickBot="1">
-      <c r="B38" s="52">
+      <c r="B38" s="49">
         <v>29</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="48">
         <v>30</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="48">
         <v>31</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="52">
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="49">
         <v>26</v>
       </c>
-      <c r="K38" s="51">
+      <c r="K38" s="48">
         <v>27</v>
       </c>
-      <c r="L38" s="51">
+      <c r="L38" s="48">
         <v>28</v>
       </c>
-      <c r="M38" s="51">
+      <c r="M38" s="48">
         <v>29</v>
       </c>
-      <c r="N38" s="51">
+      <c r="N38" s="48">
         <v>30</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38" s="48">
         <v>31</v>
       </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="52">
+      <c r="P38" s="51"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="49">
         <v>23</v>
       </c>
-      <c r="S38" s="49">
+      <c r="S38" s="46">
         <v>24</v>
       </c>
-      <c r="T38" s="51">
+      <c r="T38" s="48">
         <v>25</v>
       </c>
-      <c r="U38" s="51">
+      <c r="U38" s="48">
         <v>26</v>
       </c>
-      <c r="V38" s="51">
+      <c r="V38" s="48">
         <v>27</v>
       </c>
-      <c r="W38" s="51">
+      <c r="W38" s="48">
         <v>28</v>
       </c>
-      <c r="X38" s="49">
+      <c r="X38" s="46">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:24" ht="15.6" thickBot="1">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="57" t="s">
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="K39" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="L39" s="58" t="s">
+      <c r="L39" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="M39" s="58" t="s">
+      <c r="M39" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="N39" s="58" t="s">
+      <c r="N39" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="O39" s="58" t="s">
+      <c r="O39" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="63" t="s">
+      <c r="P39" s="51"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="S39" s="59" t="s">
+      <c r="S39" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="T39" s="58" t="s">
+      <c r="T39" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="U39" s="58" t="s">
+      <c r="U39" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="V39" s="58" t="s">
+      <c r="V39" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="W39" s="58" t="s">
+      <c r="W39" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="X39" s="58" t="s">
+      <c r="X39" s="55" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="18" thickBot="1">
-      <c r="B40" s="64"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="52">
+      <c r="B40" s="61"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="49">
         <v>30</v>
       </c>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
     </row>
     <row r="41" spans="2:24" ht="15.6" thickBot="1">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="57" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
     </row>
     <row r="42" spans="2:24" ht="14.4" thickBot="1"/>
     <row r="43" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
-      <c r="J43" s="68" t="s">
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
+      <c r="J43" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="70"/>
-      <c r="R43" s="68" t="s">
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="69"/>
+      <c r="R43" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="70"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="69"/>
     </row>
     <row r="44" spans="2:24" ht="16.2" thickBot="1">
       <c r="B44" s="28" t="s">
@@ -4572,1041 +4505,999 @@
       </c>
     </row>
     <row r="45" spans="2:24" ht="18" thickBot="1">
-      <c r="B45" s="66"/>
-      <c r="C45" s="49">
+      <c r="B45" s="76"/>
+      <c r="C45" s="46">
         <v>1</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="46">
         <v>2</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="46">
         <v>3</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="48">
         <v>4</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="48">
         <v>5</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H45" s="46">
         <v>6</v>
       </c>
-      <c r="I45" s="53"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="51">
+      <c r="I45" s="50"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="48">
         <v>1</v>
       </c>
-      <c r="O45" s="51">
+      <c r="O45" s="48">
         <v>2</v>
       </c>
-      <c r="P45" s="49">
+      <c r="P45" s="46">
         <v>3</v>
       </c>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="49">
+      <c r="Q45" s="50"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B46" s="67"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="77"/>
+      <c r="C46" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="G46" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="I46" s="53"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="58" t="s">
+      <c r="I46" s="50"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="O46" s="58" t="s">
+      <c r="O46" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="P46" s="58" t="s">
+      <c r="P46" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="58" t="s">
+      <c r="Q46" s="50"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:24" ht="18" thickBot="1">
-      <c r="B47" s="52">
+      <c r="B47" s="49">
         <v>7</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="48">
         <v>8</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="48">
         <v>9</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="48">
         <v>10</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F47" s="48">
         <v>11</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="48">
         <v>12</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="46">
         <v>13</v>
       </c>
-      <c r="I47" s="53"/>
-      <c r="J47" s="52">
+      <c r="I47" s="50"/>
+      <c r="J47" s="49">
         <v>4</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="48">
         <v>5</v>
       </c>
-      <c r="L47" s="51">
+      <c r="L47" s="48">
         <v>6</v>
       </c>
-      <c r="M47" s="51">
+      <c r="M47" s="48">
         <v>7</v>
       </c>
-      <c r="N47" s="51">
+      <c r="N47" s="48">
         <v>8</v>
       </c>
-      <c r="O47" s="51">
+      <c r="O47" s="48">
         <v>9</v>
       </c>
-      <c r="P47" s="49">
+      <c r="P47" s="46">
         <v>10</v>
       </c>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="52">
+      <c r="Q47" s="50"/>
+      <c r="R47" s="49">
         <v>2</v>
       </c>
-      <c r="S47" s="51">
+      <c r="S47" s="48">
         <v>3</v>
       </c>
-      <c r="T47" s="51">
+      <c r="T47" s="48">
         <v>4</v>
       </c>
-      <c r="U47" s="51">
+      <c r="U47" s="48">
         <v>5</v>
       </c>
-      <c r="V47" s="51">
+      <c r="V47" s="48">
         <v>6</v>
       </c>
-      <c r="W47" s="51">
+      <c r="W47" s="48">
         <v>7</v>
       </c>
-      <c r="X47" s="49">
+      <c r="X47" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="E48" s="58" t="s">
+      <c r="E48" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="F48" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="H48" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="53"/>
-      <c r="J48" s="57" t="s">
+      <c r="I48" s="50"/>
+      <c r="J48" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="K48" s="58" t="s">
+      <c r="K48" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="L48" s="58" t="s">
+      <c r="L48" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="M48" s="61" t="s">
+      <c r="M48" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="N48" s="58" t="s">
+      <c r="N48" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="O48" s="58" t="s">
+      <c r="O48" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="P48" s="58" t="s">
+      <c r="P48" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="57" t="s">
+      <c r="Q48" s="50"/>
+      <c r="R48" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="S48" s="58" t="s">
+      <c r="S48" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="T48" s="58" t="s">
+      <c r="T48" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="U48" s="58" t="s">
+      <c r="U48" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="V48" s="58" t="s">
+      <c r="V48" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="W48" s="61" t="s">
+      <c r="W48" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="X48" s="58" t="s">
+      <c r="X48" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:24" ht="18" thickBot="1">
-      <c r="B49" s="52">
+      <c r="B49" s="49">
         <v>14</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="48">
         <v>15</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="48">
         <v>16</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="48">
         <v>17</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="48">
         <v>18</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="48">
         <v>19</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="46">
         <v>20</v>
       </c>
-      <c r="I49" s="53"/>
-      <c r="J49" s="52">
+      <c r="I49" s="50"/>
+      <c r="J49" s="49">
         <v>11</v>
       </c>
-      <c r="K49" s="51">
+      <c r="K49" s="48">
         <v>12</v>
       </c>
-      <c r="L49" s="51">
+      <c r="L49" s="48">
         <v>13</v>
       </c>
-      <c r="M49" s="51">
+      <c r="M49" s="48">
         <v>14</v>
       </c>
-      <c r="N49" s="51">
+      <c r="N49" s="48">
         <v>15</v>
       </c>
-      <c r="O49" s="51">
+      <c r="O49" s="48">
         <v>16</v>
       </c>
-      <c r="P49" s="49">
+      <c r="P49" s="46">
         <v>17</v>
       </c>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="52">
+      <c r="Q49" s="50"/>
+      <c r="R49" s="49">
         <v>9</v>
       </c>
-      <c r="S49" s="51">
+      <c r="S49" s="48">
         <v>10</v>
       </c>
-      <c r="T49" s="51">
+      <c r="T49" s="48">
         <v>11</v>
       </c>
-      <c r="U49" s="51">
+      <c r="U49" s="48">
         <v>12</v>
       </c>
-      <c r="V49" s="51">
+      <c r="V49" s="48">
         <v>13</v>
       </c>
-      <c r="W49" s="51">
+      <c r="W49" s="48">
         <v>14</v>
       </c>
-      <c r="X49" s="49">
+      <c r="X49" s="46">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="58" t="s">
+      <c r="G50" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="I50" s="53"/>
-      <c r="J50" s="57" t="s">
+      <c r="I50" s="50"/>
+      <c r="J50" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="K50" s="58" t="s">
+      <c r="K50" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="L50" s="58" t="s">
+      <c r="L50" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="M50" s="58" t="s">
+      <c r="M50" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="N50" s="58" t="s">
+      <c r="N50" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="O50" s="58" t="s">
+      <c r="O50" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="P50" s="58" t="s">
+      <c r="P50" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="57" t="s">
+      <c r="Q50" s="50"/>
+      <c r="R50" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="S50" s="58" t="s">
+      <c r="S50" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="T50" s="58" t="s">
+      <c r="T50" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="U50" s="58" t="s">
+      <c r="U50" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="V50" s="58" t="s">
+      <c r="V50" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="W50" s="58" t="s">
+      <c r="W50" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="X50" s="58" t="s">
+      <c r="X50" s="55" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="18" thickBot="1">
-      <c r="B51" s="52">
+      <c r="B51" s="49">
         <v>21</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="48">
         <v>22</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="48">
         <v>23</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="48">
         <v>24</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="48">
         <v>25</v>
       </c>
-      <c r="G51" s="51">
+      <c r="G51" s="48">
         <v>26</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H51" s="46">
         <v>27</v>
       </c>
-      <c r="I51" s="53"/>
-      <c r="J51" s="52">
+      <c r="I51" s="50"/>
+      <c r="J51" s="49">
         <v>18</v>
       </c>
-      <c r="K51" s="51">
+      <c r="K51" s="48">
         <v>19</v>
       </c>
-      <c r="L51" s="51">
+      <c r="L51" s="48">
         <v>20</v>
       </c>
-      <c r="M51" s="51">
+      <c r="M51" s="48">
         <v>21</v>
       </c>
-      <c r="N51" s="51">
+      <c r="N51" s="48">
         <v>22</v>
       </c>
-      <c r="O51" s="51">
+      <c r="O51" s="48">
         <v>23</v>
       </c>
-      <c r="P51" s="49">
+      <c r="P51" s="46">
         <v>24</v>
       </c>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="52">
+      <c r="Q51" s="50"/>
+      <c r="R51" s="49">
         <v>16</v>
       </c>
-      <c r="S51" s="51">
+      <c r="S51" s="48">
         <v>17</v>
       </c>
-      <c r="T51" s="51">
+      <c r="T51" s="48">
         <v>18</v>
       </c>
-      <c r="U51" s="51">
+      <c r="U51" s="48">
         <v>19</v>
       </c>
-      <c r="V51" s="51">
+      <c r="V51" s="48">
         <v>20</v>
       </c>
-      <c r="W51" s="51">
+      <c r="W51" s="48">
         <v>21</v>
       </c>
-      <c r="X51" s="49">
+      <c r="X51" s="46">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="58" t="s">
+      <c r="E52" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="58" t="s">
+      <c r="F52" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="58" t="s">
+      <c r="G52" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="H52" s="58" t="s">
+      <c r="H52" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="53"/>
-      <c r="J52" s="57" t="s">
+      <c r="I52" s="50"/>
+      <c r="J52" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="K52" s="58" t="s">
+      <c r="K52" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="L52" s="58" t="s">
+      <c r="L52" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="M52" s="58" t="s">
+      <c r="M52" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="N52" s="61" t="s">
+      <c r="N52" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="O52" s="58" t="s">
+      <c r="O52" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="P52" s="58" t="s">
+      <c r="P52" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="57" t="s">
+      <c r="Q52" s="50"/>
+      <c r="R52" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="S52" s="58" t="s">
+      <c r="S52" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="T52" s="58" t="s">
+      <c r="T52" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="U52" s="58" t="s">
+      <c r="U52" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="V52" s="58" t="s">
+      <c r="V52" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="W52" s="58" t="s">
+      <c r="W52" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="X52" s="61" t="s">
+      <c r="X52" s="58" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="53" spans="2:24" ht="18" thickBot="1">
-      <c r="B53" s="52">
+      <c r="B53" s="49">
         <v>28</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="48">
         <v>29</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="48">
         <v>30</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="48">
         <v>31</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="52">
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="49">
         <v>25</v>
       </c>
-      <c r="K53" s="51">
+      <c r="K53" s="48">
         <v>26</v>
       </c>
-      <c r="L53" s="51">
+      <c r="L53" s="48">
         <v>27</v>
       </c>
-      <c r="M53" s="51">
+      <c r="M53" s="48">
         <v>28</v>
       </c>
-      <c r="N53" s="51">
+      <c r="N53" s="48">
         <v>29</v>
       </c>
-      <c r="O53" s="51">
+      <c r="O53" s="48">
         <v>30</v>
       </c>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="52">
+      <c r="P53" s="51"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="49">
         <v>23</v>
       </c>
-      <c r="S53" s="51">
+      <c r="S53" s="48">
         <v>24</v>
       </c>
-      <c r="T53" s="51">
+      <c r="T53" s="48">
         <v>25</v>
       </c>
-      <c r="U53" s="51">
+      <c r="U53" s="48">
         <v>26</v>
       </c>
-      <c r="V53" s="51">
+      <c r="V53" s="48">
         <v>27</v>
       </c>
-      <c r="W53" s="51">
+      <c r="W53" s="48">
         <v>28</v>
       </c>
-      <c r="X53" s="49">
+      <c r="X53" s="46">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:24" ht="15.6" thickBot="1">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="58" t="s">
+      <c r="E54" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="57" t="s">
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="K54" s="58" t="s">
+      <c r="K54" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="L54" s="58" t="s">
+      <c r="L54" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="M54" s="58" t="s">
+      <c r="M54" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="N54" s="58" t="s">
+      <c r="N54" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="O54" s="58" t="s">
+      <c r="O54" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="57" t="s">
+      <c r="P54" s="51"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="S54" s="58" t="s">
+      <c r="S54" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="T54" s="60" t="s">
+      <c r="T54" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="U54" s="58" t="s">
+      <c r="U54" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="V54" s="58" t="s">
+      <c r="V54" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="W54" s="58" t="s">
+      <c r="W54" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="X54" s="58" t="s">
+      <c r="X54" s="55" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="55" spans="2:24" ht="18" thickBot="1">
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="52">
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="49">
         <v>30</v>
       </c>
-      <c r="S55" s="51">
+      <c r="S55" s="48">
         <v>31</v>
       </c>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
     </row>
     <row r="56" spans="2:24" ht="15.6" thickBot="1">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="57" t="s">
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="S56" s="58" t="s">
+      <c r="S56" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
     </row>
     <row r="67" spans="2:36">
       <c r="B67" s="39"/>
-      <c r="AC67" s="53"/>
-      <c r="AD67" s="53"/>
-      <c r="AE67" s="53"/>
-      <c r="AF67" s="53"/>
-      <c r="AG67" s="53"/>
-      <c r="AH67" s="53"/>
-      <c r="AI67" s="53"/>
-      <c r="AJ67" s="53"/>
+      <c r="AC67" s="50"/>
+      <c r="AD67" s="50"/>
+      <c r="AE67" s="50"/>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="50"/>
+      <c r="AI67" s="50"/>
+      <c r="AJ67" s="50"/>
     </row>
     <row r="68" spans="2:36">
       <c r="B68" s="39"/>
-      <c r="AC68" s="53"/>
-      <c r="AD68" s="53"/>
-      <c r="AE68" s="53"/>
-      <c r="AF68" s="53"/>
-      <c r="AG68" s="53"/>
-      <c r="AH68" s="53"/>
-      <c r="AI68" s="53"/>
-      <c r="AJ68" s="53"/>
+      <c r="AC68" s="50"/>
+      <c r="AD68" s="50"/>
+      <c r="AE68" s="50"/>
+      <c r="AF68" s="50"/>
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="50"/>
+      <c r="AI68" s="50"/>
+      <c r="AJ68" s="50"/>
     </row>
     <row r="69" spans="2:36">
-      <c r="AC69" s="53"/>
-      <c r="AD69" s="53"/>
-      <c r="AE69" s="53"/>
-      <c r="AF69" s="53"/>
-      <c r="AG69" s="53"/>
-      <c r="AH69" s="53"/>
-      <c r="AI69" s="53"/>
-      <c r="AJ69" s="53"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="50"/>
+      <c r="AI69" s="50"/>
+      <c r="AJ69" s="50"/>
     </row>
     <row r="70" spans="2:36">
-      <c r="AC70" s="53"/>
-      <c r="AD70" s="53"/>
-      <c r="AE70" s="53"/>
-      <c r="AF70" s="53"/>
-      <c r="AG70" s="53"/>
-      <c r="AH70" s="53"/>
-      <c r="AI70" s="53"/>
-      <c r="AJ70" s="53"/>
+      <c r="AC70" s="50"/>
+      <c r="AD70" s="50"/>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="50"/>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="50"/>
     </row>
     <row r="71" spans="2:36">
-      <c r="AC71" s="53"/>
-      <c r="AD71" s="53"/>
-      <c r="AE71" s="53"/>
-      <c r="AF71" s="53"/>
-      <c r="AG71" s="53"/>
-      <c r="AH71" s="53"/>
-      <c r="AI71" s="53"/>
-      <c r="AJ71" s="53"/>
+      <c r="AC71" s="50"/>
+      <c r="AD71" s="50"/>
+      <c r="AE71" s="50"/>
+      <c r="AF71" s="50"/>
+      <c r="AG71" s="50"/>
+      <c r="AH71" s="50"/>
+      <c r="AI71" s="50"/>
+      <c r="AJ71" s="50"/>
     </row>
     <row r="72" spans="2:36">
-      <c r="AC72" s="53"/>
-      <c r="AD72" s="53"/>
-      <c r="AE72" s="53"/>
-      <c r="AF72" s="53"/>
-      <c r="AG72" s="53"/>
-      <c r="AH72" s="53"/>
-      <c r="AI72" s="53"/>
-      <c r="AJ72" s="53"/>
+      <c r="AC72" s="50"/>
+      <c r="AD72" s="50"/>
+      <c r="AE72" s="50"/>
+      <c r="AF72" s="50"/>
+      <c r="AG72" s="50"/>
+      <c r="AH72" s="50"/>
+      <c r="AI72" s="50"/>
+      <c r="AJ72" s="50"/>
     </row>
     <row r="73" spans="2:36">
-      <c r="AC73" s="53"/>
-      <c r="AD73" s="53"/>
-      <c r="AE73" s="53"/>
-      <c r="AF73" s="53"/>
-      <c r="AG73" s="53"/>
-      <c r="AH73" s="53"/>
-      <c r="AI73" s="53"/>
-      <c r="AJ73" s="53"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
+      <c r="AI73" s="50"/>
+      <c r="AJ73" s="50"/>
     </row>
     <row r="74" spans="2:36">
-      <c r="AC74" s="53"/>
-      <c r="AD74" s="53"/>
-      <c r="AE74" s="53"/>
-      <c r="AF74" s="53"/>
-      <c r="AG74" s="53"/>
-      <c r="AH74" s="53"/>
-      <c r="AI74" s="53"/>
-      <c r="AJ74" s="53"/>
+      <c r="AC74" s="50"/>
+      <c r="AD74" s="50"/>
+      <c r="AE74" s="50"/>
+      <c r="AF74" s="50"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="50"/>
+      <c r="AI74" s="50"/>
+      <c r="AJ74" s="50"/>
     </row>
     <row r="75" spans="2:36">
-      <c r="AC75" s="53"/>
-      <c r="AD75" s="53"/>
-      <c r="AE75" s="53"/>
-      <c r="AF75" s="53"/>
-      <c r="AG75" s="53"/>
-      <c r="AH75" s="53"/>
-      <c r="AI75" s="53"/>
-      <c r="AJ75" s="53"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="50"/>
+      <c r="AF75" s="50"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="50"/>
     </row>
     <row r="76" spans="2:36">
-      <c r="AC76" s="53"/>
-      <c r="AD76" s="53"/>
-      <c r="AE76" s="53"/>
-      <c r="AF76" s="53"/>
-      <c r="AG76" s="53"/>
-      <c r="AH76" s="53"/>
-      <c r="AI76" s="53"/>
-      <c r="AJ76" s="53"/>
+      <c r="AC76" s="50"/>
+      <c r="AD76" s="50"/>
+      <c r="AE76" s="50"/>
+      <c r="AF76" s="50"/>
+      <c r="AG76" s="50"/>
+      <c r="AH76" s="50"/>
+      <c r="AI76" s="50"/>
+      <c r="AJ76" s="50"/>
     </row>
     <row r="77" spans="2:36">
-      <c r="AC77" s="53"/>
-      <c r="AD77" s="53"/>
-      <c r="AE77" s="53"/>
-      <c r="AF77" s="53"/>
-      <c r="AG77" s="53"/>
-      <c r="AH77" s="53"/>
-      <c r="AI77" s="53"/>
-      <c r="AJ77" s="53"/>
+      <c r="AC77" s="50"/>
+      <c r="AD77" s="50"/>
+      <c r="AE77" s="50"/>
+      <c r="AF77" s="50"/>
+      <c r="AG77" s="50"/>
+      <c r="AH77" s="50"/>
+      <c r="AI77" s="50"/>
+      <c r="AJ77" s="50"/>
     </row>
     <row r="78" spans="2:36">
-      <c r="AC78" s="53"/>
-      <c r="AD78" s="53"/>
-      <c r="AE78" s="53"/>
-      <c r="AF78" s="53"/>
-      <c r="AG78" s="53"/>
-      <c r="AH78" s="53"/>
-      <c r="AI78" s="53"/>
-      <c r="AJ78" s="53"/>
+      <c r="AC78" s="50"/>
+      <c r="AD78" s="50"/>
+      <c r="AE78" s="50"/>
+      <c r="AF78" s="50"/>
+      <c r="AG78" s="50"/>
+      <c r="AH78" s="50"/>
+      <c r="AI78" s="50"/>
+      <c r="AJ78" s="50"/>
     </row>
     <row r="79" spans="2:36">
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
+      <c r="AC79" s="50"/>
+      <c r="AD79" s="50"/>
+      <c r="AE79" s="50"/>
+      <c r="AF79" s="50"/>
+      <c r="AG79" s="50"/>
+      <c r="AH79" s="50"/>
+      <c r="AI79" s="50"/>
+      <c r="AJ79" s="50"/>
     </row>
     <row r="80" spans="2:36">
-      <c r="AC80" s="53"/>
-      <c r="AD80" s="53"/>
-      <c r="AE80" s="53"/>
-      <c r="AF80" s="53"/>
-      <c r="AG80" s="53"/>
-      <c r="AH80" s="53"/>
-      <c r="AI80" s="53"/>
-      <c r="AJ80" s="53"/>
+      <c r="AC80" s="50"/>
+      <c r="AD80" s="50"/>
+      <c r="AE80" s="50"/>
+      <c r="AF80" s="50"/>
+      <c r="AG80" s="50"/>
+      <c r="AH80" s="50"/>
+      <c r="AI80" s="50"/>
+      <c r="AJ80" s="50"/>
     </row>
     <row r="81" spans="2:36">
       <c r="B81" s="39"/>
-      <c r="AC81" s="53"/>
-      <c r="AD81" s="53"/>
-      <c r="AE81" s="53"/>
-      <c r="AF81" s="53"/>
-      <c r="AG81" s="53"/>
-      <c r="AH81" s="53"/>
-      <c r="AI81" s="53"/>
-      <c r="AJ81" s="53"/>
+      <c r="AC81" s="50"/>
+      <c r="AD81" s="50"/>
+      <c r="AE81" s="50"/>
+      <c r="AF81" s="50"/>
+      <c r="AG81" s="50"/>
+      <c r="AH81" s="50"/>
+      <c r="AI81" s="50"/>
+      <c r="AJ81" s="50"/>
     </row>
     <row r="82" spans="2:36">
       <c r="B82" s="39"/>
-      <c r="AC82" s="53"/>
-      <c r="AD82" s="53"/>
-      <c r="AE82" s="53"/>
-      <c r="AF82" s="53"/>
-      <c r="AG82" s="53"/>
-      <c r="AH82" s="53"/>
-      <c r="AI82" s="53"/>
-      <c r="AJ82" s="53"/>
+      <c r="AC82" s="50"/>
+      <c r="AD82" s="50"/>
+      <c r="AE82" s="50"/>
+      <c r="AF82" s="50"/>
+      <c r="AG82" s="50"/>
+      <c r="AH82" s="50"/>
+      <c r="AI82" s="50"/>
+      <c r="AJ82" s="50"/>
     </row>
     <row r="83" spans="2:36">
-      <c r="AC83" s="53"/>
-      <c r="AD83" s="53"/>
-      <c r="AE83" s="53"/>
-      <c r="AF83" s="53"/>
-      <c r="AG83" s="53"/>
-      <c r="AH83" s="53"/>
-      <c r="AI83" s="53"/>
-      <c r="AJ83" s="53"/>
+      <c r="AC83" s="50"/>
+      <c r="AD83" s="50"/>
+      <c r="AE83" s="50"/>
+      <c r="AF83" s="50"/>
+      <c r="AG83" s="50"/>
+      <c r="AH83" s="50"/>
+      <c r="AI83" s="50"/>
+      <c r="AJ83" s="50"/>
     </row>
     <row r="84" spans="2:36">
-      <c r="AC84" s="53"/>
-      <c r="AD84" s="53"/>
-      <c r="AE84" s="53"/>
-      <c r="AF84" s="53"/>
-      <c r="AG84" s="53"/>
-      <c r="AH84" s="53"/>
-      <c r="AI84" s="53"/>
-      <c r="AJ84" s="53"/>
+      <c r="AC84" s="50"/>
+      <c r="AD84" s="50"/>
+      <c r="AE84" s="50"/>
+      <c r="AF84" s="50"/>
+      <c r="AG84" s="50"/>
+      <c r="AH84" s="50"/>
+      <c r="AI84" s="50"/>
+      <c r="AJ84" s="50"/>
     </row>
     <row r="85" spans="2:36">
-      <c r="AC85" s="53"/>
-      <c r="AD85" s="53"/>
-      <c r="AE85" s="53"/>
-      <c r="AF85" s="53"/>
-      <c r="AG85" s="53"/>
-      <c r="AH85" s="53"/>
-      <c r="AI85" s="53"/>
-      <c r="AJ85" s="53"/>
+      <c r="AC85" s="50"/>
+      <c r="AD85" s="50"/>
+      <c r="AE85" s="50"/>
+      <c r="AF85" s="50"/>
+      <c r="AG85" s="50"/>
+      <c r="AH85" s="50"/>
+      <c r="AI85" s="50"/>
+      <c r="AJ85" s="50"/>
     </row>
     <row r="86" spans="2:36">
-      <c r="AC86" s="53"/>
-      <c r="AD86" s="53"/>
-      <c r="AE86" s="53"/>
-      <c r="AF86" s="53"/>
-      <c r="AG86" s="53"/>
-      <c r="AH86" s="53"/>
-      <c r="AI86" s="53"/>
-      <c r="AJ86" s="53"/>
+      <c r="AC86" s="50"/>
+      <c r="AD86" s="50"/>
+      <c r="AE86" s="50"/>
+      <c r="AF86" s="50"/>
+      <c r="AG86" s="50"/>
+      <c r="AH86" s="50"/>
+      <c r="AI86" s="50"/>
+      <c r="AJ86" s="50"/>
     </row>
     <row r="87" spans="2:36">
-      <c r="AC87" s="53"/>
-      <c r="AD87" s="53"/>
-      <c r="AE87" s="53"/>
-      <c r="AF87" s="53"/>
-      <c r="AG87" s="53"/>
-      <c r="AH87" s="53"/>
-      <c r="AI87" s="53"/>
-      <c r="AJ87" s="53"/>
+      <c r="AC87" s="50"/>
+      <c r="AD87" s="50"/>
+      <c r="AE87" s="50"/>
+      <c r="AF87" s="50"/>
+      <c r="AG87" s="50"/>
+      <c r="AH87" s="50"/>
+      <c r="AI87" s="50"/>
+      <c r="AJ87" s="50"/>
     </row>
     <row r="88" spans="2:36">
-      <c r="AC88" s="53"/>
-      <c r="AD88" s="53"/>
-      <c r="AE88" s="53"/>
-      <c r="AF88" s="53"/>
-      <c r="AG88" s="53"/>
-      <c r="AH88" s="53"/>
-      <c r="AI88" s="53"/>
-      <c r="AJ88" s="53"/>
+      <c r="AC88" s="50"/>
+      <c r="AD88" s="50"/>
+      <c r="AE88" s="50"/>
+      <c r="AF88" s="50"/>
+      <c r="AG88" s="50"/>
+      <c r="AH88" s="50"/>
+      <c r="AI88" s="50"/>
+      <c r="AJ88" s="50"/>
     </row>
     <row r="89" spans="2:36">
-      <c r="AC89" s="53"/>
-      <c r="AD89" s="53"/>
-      <c r="AE89" s="53"/>
-      <c r="AF89" s="53"/>
-      <c r="AG89" s="53"/>
-      <c r="AH89" s="53"/>
-      <c r="AI89" s="53"/>
-      <c r="AJ89" s="53"/>
+      <c r="AC89" s="50"/>
+      <c r="AD89" s="50"/>
+      <c r="AE89" s="50"/>
+      <c r="AF89" s="50"/>
+      <c r="AG89" s="50"/>
+      <c r="AH89" s="50"/>
+      <c r="AI89" s="50"/>
+      <c r="AJ89" s="50"/>
     </row>
     <row r="90" spans="2:36">
-      <c r="AC90" s="53"/>
-      <c r="AD90" s="53"/>
-      <c r="AE90" s="53"/>
-      <c r="AF90" s="53"/>
-      <c r="AG90" s="53"/>
-      <c r="AH90" s="53"/>
-      <c r="AI90" s="53"/>
-      <c r="AJ90" s="53"/>
+      <c r="AC90" s="50"/>
+      <c r="AD90" s="50"/>
+      <c r="AE90" s="50"/>
+      <c r="AF90" s="50"/>
+      <c r="AG90" s="50"/>
+      <c r="AH90" s="50"/>
+      <c r="AI90" s="50"/>
+      <c r="AJ90" s="50"/>
     </row>
     <row r="91" spans="2:36">
-      <c r="AC91" s="53"/>
-      <c r="AD91" s="53"/>
-      <c r="AE91" s="53"/>
-      <c r="AF91" s="53"/>
-      <c r="AG91" s="53"/>
-      <c r="AH91" s="53"/>
-      <c r="AI91" s="53"/>
-      <c r="AJ91" s="53"/>
+      <c r="AC91" s="50"/>
+      <c r="AD91" s="50"/>
+      <c r="AE91" s="50"/>
+      <c r="AF91" s="50"/>
+      <c r="AG91" s="50"/>
+      <c r="AH91" s="50"/>
+      <c r="AI91" s="50"/>
+      <c r="AJ91" s="50"/>
     </row>
     <row r="92" spans="2:36">
-      <c r="AC92" s="53"/>
-      <c r="AD92" s="53"/>
-      <c r="AE92" s="53"/>
-      <c r="AF92" s="53"/>
-      <c r="AG92" s="53"/>
-      <c r="AH92" s="53"/>
-      <c r="AI92" s="53"/>
-      <c r="AJ92" s="53"/>
+      <c r="AC92" s="50"/>
+      <c r="AD92" s="50"/>
+      <c r="AE92" s="50"/>
+      <c r="AF92" s="50"/>
+      <c r="AG92" s="50"/>
+      <c r="AH92" s="50"/>
+      <c r="AI92" s="50"/>
+      <c r="AJ92" s="50"/>
     </row>
     <row r="93" spans="2:36">
-      <c r="AC93" s="53"/>
-      <c r="AD93" s="53"/>
-      <c r="AE93" s="53"/>
-      <c r="AF93" s="53"/>
-      <c r="AG93" s="53"/>
-      <c r="AH93" s="53"/>
-      <c r="AI93" s="53"/>
-      <c r="AJ93" s="53"/>
+      <c r="AC93" s="50"/>
+      <c r="AD93" s="50"/>
+      <c r="AE93" s="50"/>
+      <c r="AF93" s="50"/>
+      <c r="AG93" s="50"/>
+      <c r="AH93" s="50"/>
+      <c r="AI93" s="50"/>
+      <c r="AJ93" s="50"/>
     </row>
     <row r="94" spans="2:36">
-      <c r="AC94" s="53"/>
-      <c r="AD94" s="53"/>
-      <c r="AE94" s="53"/>
-      <c r="AF94" s="53"/>
-      <c r="AG94" s="53"/>
-      <c r="AH94" s="53"/>
-      <c r="AI94" s="53"/>
-      <c r="AJ94" s="53"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="50"/>
+      <c r="AE94" s="50"/>
+      <c r="AF94" s="50"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="50"/>
+      <c r="AJ94" s="50"/>
     </row>
     <row r="95" spans="2:36">
-      <c r="AC95" s="53"/>
-      <c r="AD95" s="53"/>
-      <c r="AE95" s="53"/>
-      <c r="AF95" s="53"/>
-      <c r="AG95" s="53"/>
-      <c r="AH95" s="53"/>
-      <c r="AI95" s="53"/>
-      <c r="AJ95" s="53"/>
+      <c r="AC95" s="50"/>
+      <c r="AD95" s="50"/>
+      <c r="AE95" s="50"/>
+      <c r="AF95" s="50"/>
+      <c r="AG95" s="50"/>
+      <c r="AH95" s="50"/>
+      <c r="AI95" s="50"/>
+      <c r="AJ95" s="50"/>
     </row>
     <row r="96" spans="2:36">
-      <c r="AC96" s="53"/>
-      <c r="AD96" s="53"/>
-      <c r="AE96" s="53"/>
-      <c r="AF96" s="53"/>
-      <c r="AG96" s="53"/>
-      <c r="AH96" s="53"/>
-      <c r="AI96" s="53"/>
-      <c r="AJ96" s="53"/>
+      <c r="AC96" s="50"/>
+      <c r="AD96" s="50"/>
+      <c r="AE96" s="50"/>
+      <c r="AF96" s="50"/>
+      <c r="AG96" s="50"/>
+      <c r="AH96" s="50"/>
+      <c r="AI96" s="50"/>
+      <c r="AJ96" s="50"/>
     </row>
     <row r="97" spans="29:36">
-      <c r="AC97" s="53"/>
-      <c r="AD97" s="53"/>
-      <c r="AE97" s="53"/>
-      <c r="AF97" s="53"/>
-      <c r="AG97" s="53"/>
-      <c r="AH97" s="53"/>
-      <c r="AI97" s="53"/>
-      <c r="AJ97" s="53"/>
+      <c r="AC97" s="50"/>
+      <c r="AD97" s="50"/>
+      <c r="AE97" s="50"/>
+      <c r="AF97" s="50"/>
+      <c r="AG97" s="50"/>
+      <c r="AH97" s="50"/>
+      <c r="AI97" s="50"/>
+      <c r="AJ97" s="50"/>
     </row>
     <row r="98" spans="29:36">
-      <c r="AC98" s="53"/>
-      <c r="AD98" s="53"/>
-      <c r="AE98" s="53"/>
-      <c r="AF98" s="53"/>
-      <c r="AG98" s="53"/>
-      <c r="AH98" s="53"/>
-      <c r="AI98" s="53"/>
-      <c r="AJ98" s="53"/>
+      <c r="AC98" s="50"/>
+      <c r="AD98" s="50"/>
+      <c r="AE98" s="50"/>
+      <c r="AF98" s="50"/>
+      <c r="AG98" s="50"/>
+      <c r="AH98" s="50"/>
+      <c r="AI98" s="50"/>
+      <c r="AJ98" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B1:X1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="R15:X15"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="R28:X28"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="J28:P28"/>
     <mergeCell ref="T45:T46"/>
     <mergeCell ref="U45:U46"/>
     <mergeCell ref="V45:V46"/>
@@ -5621,6 +5512,48 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="R45:R46"/>
     <mergeCell ref="S45:S46"/>
+    <mergeCell ref="R28:X28"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5835,7 +5768,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6179,7 +6112,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>34</v>
@@ -6288,8 +6221,8 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="45" t="s">
-        <v>244</v>
+      <c r="A10" s="42" t="s">
+        <v>241</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6331,7 +6264,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6367,7 +6300,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6403,7 +6336,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B14" s="13">
         <v>43252</v>
@@ -6590,7 +6523,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -6834,36 +6767,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E72" sqref="A70:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="17"/>
     <col min="2" max="2" width="11.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="46"/>
+    <col min="3" max="3" width="8.88671875" style="43"/>
     <col min="4" max="4" width="26.77734375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="17"/>
-    <col min="9" max="9" width="8.88671875" style="17" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="17"/>
-    <col min="12" max="12" width="8.88671875" style="46"/>
-    <col min="13" max="13" width="26.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="17"/>
+    <col min="5" max="6" width="12.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="17"/>
+    <col min="10" max="10" width="8.88671875" style="17" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="17"/>
+    <col min="13" max="13" width="8.88671875" style="43"/>
+    <col min="14" max="14" width="26.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4">
+    <row r="1" spans="1:19" ht="14.4">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -6872,57 +6805,60 @@
       <c r="E1" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="F1" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="44">
         <v>7.92</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="44">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="44">
         <v>7.92</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="44">
         <v>7.92</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="44">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>7.92</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <v>2</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -6931,15 +6867,16 @@
       <c r="E5" s="20">
         <v>43031</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="44">
         <v>7.92</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="44">
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -6948,15 +6885,16 @@
       <c r="E6" s="20">
         <v>43032</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="44">
         <v>7.92</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="44">
         <v>2</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -6965,15 +6903,16 @@
       <c r="E7" s="20">
         <v>43033</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="44">
         <v>7.92</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="44">
         <v>3</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -6982,21 +6921,24 @@
       <c r="E8" s="20">
         <v>43033</v>
       </c>
+      <c r="F8" s="20"/>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="44">
         <v>7.92</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="44">
         <v>3</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -7005,21 +6947,24 @@
       <c r="E9" s="20">
         <v>43033</v>
       </c>
+      <c r="F9" s="20"/>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="44">
         <v>7.92</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="44">
         <v>4</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -7028,24 +6973,27 @@
       <c r="E10" s="20">
         <v>43035</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="17" t="s">
         <v>48</v>
       </c>
+      <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="44">
         <v>7.92</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="44">
         <v>4</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -7054,24 +7002,27 @@
       <c r="E11" s="20">
         <v>43035</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="17" t="s">
         <v>49</v>
       </c>
+      <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="44">
         <v>7.92</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="44">
         <v>4</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -7080,71 +7031,75 @@
       <c r="E12" s="20">
         <v>43035</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="43"/>
       <c r="D13" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="20">
         <v>43036</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="17" t="s">
         <v>53</v>
       </c>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="43"/>
       <c r="D14" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="20">
         <v>43036</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="47">
-        <v>1</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>258</v>
-      </c>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="44">
         <v>7.92</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="44">
         <v>5</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -7153,29 +7108,27 @@
       <c r="E15" s="20">
         <v>43039</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="47">
-        <v>2</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="L15"/>
+      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="44">
         <v>7.92</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="44">
         <v>6</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -7184,26 +7137,24 @@
       <c r="E16" s="20">
         <v>43045</v>
       </c>
-      <c r="L16" s="47">
-        <v>3</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="F16" s="20"/>
+      <c r="L16"/>
+      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="44">
         <v>7.92</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="44">
         <v>7</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -7212,26 +7163,24 @@
       <c r="E17" s="20">
         <v>43047</v>
       </c>
-      <c r="L17" s="47">
-        <v>4</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>255</v>
-      </c>
+      <c r="F17" s="20"/>
+      <c r="L17"/>
+      <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="44">
         <v>7.92</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="44">
         <v>7</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -7240,26 +7189,24 @@
       <c r="E18" s="20">
         <v>43047</v>
       </c>
-      <c r="L18" s="47">
-        <v>5</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>254</v>
-      </c>
+      <c r="F18" s="20"/>
+      <c r="L18"/>
+      <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="44">
         <v>7.92</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="44">
         <v>7</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -7268,26 +7215,24 @@
       <c r="E19" s="20">
         <v>43047</v>
       </c>
-      <c r="L19" s="47">
-        <v>6</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>18</v>
-      </c>
+      <c r="F19" s="20"/>
+      <c r="L19"/>
+      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="44">
         <v>7.92</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="44">
         <v>7</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -7296,27 +7241,24 @@
       <c r="E20" s="20">
         <v>43047</v>
       </c>
-      <c r="L20" s="47">
-        <v>7</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>44</v>
-      </c>
+      <c r="F20" s="20"/>
+      <c r="L20"/>
+      <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20" s="42" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="44">
         <v>7.92</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="44">
         <v>7</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -7325,28 +7267,24 @@
       <c r="E21" s="20">
         <v>43047</v>
       </c>
-      <c r="L21" s="47">
-        <v>8</v>
-      </c>
-      <c r="M21" s="44" t="s">
-        <v>61</v>
-      </c>
+      <c r="F21" s="20"/>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" s="41" t="s">
-        <v>233</v>
-      </c>
+      <c r="Q21"/>
       <c r="R21"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="44">
         <v>7.92</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="44">
         <v>2</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -7355,28 +7293,24 @@
       <c r="E22" s="20">
         <v>43047</v>
       </c>
-      <c r="L22" s="47">
-        <v>9</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>57</v>
-      </c>
+      <c r="F22" s="20"/>
+      <c r="L22"/>
+      <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22" s="40" t="s">
-        <v>234</v>
-      </c>
+      <c r="Q22"/>
       <c r="R22"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="44">
         <v>7.92</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="44">
         <v>7</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -7385,26 +7319,24 @@
       <c r="E23" s="20">
         <v>43047</v>
       </c>
-      <c r="L23" s="47">
-        <v>10</v>
-      </c>
-      <c r="M23" s="44" t="s">
-        <v>42</v>
-      </c>
+      <c r="F23" s="20"/>
+      <c r="L23"/>
+      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="44">
         <v>7.92</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="44">
         <v>7</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -7413,24 +7345,24 @@
       <c r="E24" s="20">
         <v>43047</v>
       </c>
-      <c r="L24" s="47">
-        <v>11</v>
-      </c>
-      <c r="M24" s="44" t="s">
-        <v>47</v>
-      </c>
+      <c r="F24" s="20"/>
+      <c r="L24"/>
+      <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="44">
         <v>7.92</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="44">
         <v>7</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -7439,26 +7371,24 @@
       <c r="E25" s="20">
         <v>43047</v>
       </c>
-      <c r="L25" s="47">
-        <v>12</v>
-      </c>
-      <c r="M25" s="44" t="s">
-        <v>58</v>
-      </c>
+      <c r="F25" s="20"/>
+      <c r="L25"/>
+      <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="44">
         <v>7.92</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="44">
         <v>7</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -7467,26 +7397,24 @@
       <c r="E26" s="20">
         <v>43047</v>
       </c>
-      <c r="L26" s="47">
-        <v>13</v>
-      </c>
-      <c r="M26" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="F26" s="20"/>
+      <c r="L26"/>
+      <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="44">
         <v>7.92</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="44">
         <v>7</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -7495,24 +7423,24 @@
       <c r="E27" s="20">
         <v>43047</v>
       </c>
-      <c r="L27" s="47">
-        <v>14</v>
-      </c>
-      <c r="M27" s="43" t="s">
-        <v>259</v>
-      </c>
+      <c r="F27" s="20"/>
+      <c r="L27"/>
+      <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="44">
         <v>7.92</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="44">
         <v>7</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -7521,26 +7449,24 @@
       <c r="E28" s="20">
         <v>43047</v>
       </c>
-      <c r="L28" s="47">
-        <v>15</v>
-      </c>
-      <c r="M28" s="44" t="s">
-        <v>60</v>
-      </c>
+      <c r="F28" s="20"/>
+      <c r="L28"/>
+      <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="44">
         <v>7.92</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="44">
         <v>8</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -7549,24 +7475,24 @@
       <c r="E29" s="20">
         <v>43051</v>
       </c>
-      <c r="L29" s="47">
-        <v>16</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="F29" s="20"/>
+      <c r="L29"/>
+      <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="44">
         <v>7.92</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="44">
         <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -7575,20 +7501,24 @@
       <c r="E30" s="20">
         <v>43055</v>
       </c>
+      <c r="F30" s="20"/>
+      <c r="L30"/>
+      <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="44">
         <v>7.92</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="44">
         <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -7597,21 +7527,24 @@
       <c r="E31" s="20">
         <v>43055</v>
       </c>
+      <c r="F31" s="20"/>
+      <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="44">
         <v>7.92</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="44">
         <v>7</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -7620,15 +7553,24 @@
       <c r="E32" s="20">
         <v>43066</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="F32" s="20"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="44">
         <v>7.92</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="44">
         <v>10</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -7637,21 +7579,24 @@
       <c r="E33" s="20">
         <v>43073</v>
       </c>
-      <c r="L33" s="46">
-        <v>1</v>
-      </c>
-      <c r="M33" s="40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="F33" s="20"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="44">
         <v>7.92</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="44">
         <v>10</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -7660,21 +7605,24 @@
       <c r="E34" s="20">
         <v>43075</v>
       </c>
-      <c r="L34" s="46">
-        <v>2</v>
-      </c>
-      <c r="M34" s="40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="F34" s="20"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="44">
         <v>7.92</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="44">
         <v>10</v>
       </c>
       <c r="D35" s="17" t="s">
@@ -7683,22 +7631,25 @@
       <c r="E35" s="20">
         <v>43087</v>
       </c>
-      <c r="L35" s="46">
-        <v>3</v>
-      </c>
-      <c r="M35" s="40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14.4">
+      <c r="F35" s="20"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="1:19" ht="14.4">
       <c r="A36" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="47" t="s">
-        <v>235</v>
+      <c r="C36" s="44" t="s">
+        <v>232</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>46</v>
@@ -7706,24 +7657,27 @@
       <c r="E36" s="20">
         <v>43142</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L36" s="46">
-        <v>4</v>
-      </c>
-      <c r="M36" s="40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14.4">
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+    </row>
+    <row r="37" spans="1:19" ht="14.4">
       <c r="A37" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="44">
         <v>1</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -7732,24 +7686,27 @@
       <c r="E37" s="20">
         <v>43223</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="20"/>
+      <c r="G37" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="46">
-        <v>5</v>
-      </c>
-      <c r="M37" s="40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14.4">
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+    </row>
+    <row r="38" spans="1:19" ht="14.4">
       <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="44">
         <v>1</v>
       </c>
       <c r="D38" s="17" t="s">
@@ -7758,24 +7715,27 @@
       <c r="E38" s="20">
         <v>43223</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L38" s="46">
-        <v>6</v>
-      </c>
-      <c r="M38" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.4">
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.4">
       <c r="A39" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="44">
         <v>1</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -7784,22 +7744,25 @@
       <c r="E39" s="20">
         <v>43224</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="L39" s="46">
-        <v>7</v>
-      </c>
-      <c r="M39" s="40" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.4">
+      <c r="F39" s="20"/>
+      <c r="G39" s="22"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+    </row>
+    <row r="40" spans="1:19" ht="14.4">
       <c r="A40" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="44">
         <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -7808,240 +7771,288 @@
       <c r="E40" s="20">
         <v>43224</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="46">
-        <v>8</v>
-      </c>
-      <c r="M40" s="40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="14.4">
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="1:19" ht="14.4">
       <c r="A41" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="44">
         <v>1</v>
       </c>
-      <c r="D41" s="43" t="s">
-        <v>236</v>
+      <c r="D41" s="41" t="s">
+        <v>233</v>
       </c>
       <c r="E41" s="20">
         <v>43225</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L41" s="46">
-        <v>9</v>
-      </c>
-      <c r="M41" s="40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="14.4">
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="1:19" ht="14.4">
       <c r="A42" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="44">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E42" s="20">
         <v>43225</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="46">
-        <v>10</v>
-      </c>
-      <c r="M42" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="14.4">
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+    </row>
+    <row r="43" spans="1:19" ht="14.4">
       <c r="A43" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="44">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E43" s="20">
         <v>43225</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="20"/>
+      <c r="G43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L43" s="46">
-        <v>11</v>
-      </c>
-      <c r="M43" s="40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="14.4">
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+    </row>
+    <row r="44" spans="1:19" ht="14.4">
       <c r="A44" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E44" s="20">
         <v>43225</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="20"/>
+      <c r="G44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L44" s="46">
-        <v>12</v>
-      </c>
-      <c r="M44" s="40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="14.4">
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+    </row>
+    <row r="45" spans="1:19" ht="14.4">
       <c r="A45" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="44">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E45" s="20">
         <v>43225</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="20"/>
+      <c r="G45" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L45" s="46">
-        <v>13</v>
-      </c>
-      <c r="M45" s="40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="14.4">
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+    </row>
+    <row r="46" spans="1:19" ht="14.4">
       <c r="A46" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="44">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E46" s="20">
         <v>43225</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="20"/>
+      <c r="G46" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L46" s="46">
-        <v>14</v>
-      </c>
-      <c r="M46" s="40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="14.4">
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+    </row>
+    <row r="47" spans="1:19" ht="14.4">
       <c r="A47" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="44">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E47" s="20">
         <v>43225</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="20"/>
+      <c r="G47" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="14.4">
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+    </row>
+    <row r="48" spans="1:19" ht="14.4">
       <c r="A48" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="44">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E48" s="20">
         <v>43225</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="20"/>
+      <c r="G48" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="14.4">
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+    </row>
+    <row r="49" spans="1:19" ht="14.4">
       <c r="A49" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="44">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E49" s="20">
         <v>43236</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="14.4">
+      <c r="F49" s="20"/>
+      <c r="G49" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+    </row>
+    <row r="50" spans="1:19" ht="14.4">
       <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="44">
         <v>2</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -8050,27 +8061,27 @@
       <c r="E50" s="20">
         <v>43239</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="M50" t="s">
-        <v>250</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="P50" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="14.4">
+      <c r="F50" s="20"/>
+      <c r="G50" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="44">
         <v>3</v>
       </c>
       <c r="D51" t="s">
@@ -8079,58 +8090,76 @@
       <c r="E51" s="20">
         <v>43243</v>
       </c>
-      <c r="M51" t="s">
-        <v>251</v>
-      </c>
-      <c r="N51" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="P51" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="F51" s="20"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="44">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E52" s="20">
         <v>43243</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="F52" s="20"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="47">
+      <c r="C53" s="44">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E53" s="20">
         <v>43256</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="F53" s="20"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="44">
         <v>4</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -8139,55 +8168,76 @@
       <c r="E54" s="20">
         <v>43256</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="14.4">
+      <c r="F54" s="20"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="44">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E55" s="20">
         <v>43256</v>
       </c>
+      <c r="F55" s="20"/>
+      <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" s="22"/>
-      <c r="P55" s="22"/>
-    </row>
-    <row r="56" spans="1:16" ht="14.4">
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C56" s="47">
+        <v>284</v>
+      </c>
+      <c r="C56" s="44">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E56" s="20">
         <v>43271</v>
       </c>
+      <c r="F56" s="20"/>
+      <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" s="22"/>
-      <c r="P56" s="22"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" s="47">
+        <v>284</v>
+      </c>
+      <c r="C57" s="44">
         <v>1</v>
       </c>
       <c r="D57" t="s">
@@ -8196,270 +8246,325 @@
       <c r="E57" s="20">
         <v>43272</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="F57" s="20"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C58" s="47">
+        <v>284</v>
+      </c>
+      <c r="C58" s="44">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E58" s="20">
         <v>43272</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="F58" s="20"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C59" s="47">
+        <v>284</v>
+      </c>
+      <c r="C59" s="44">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E59" s="20">
         <v>43272</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" s="47">
+        <v>284</v>
+      </c>
+      <c r="C60" s="44">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E60" s="20">
         <v>43272</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C61" s="47">
+        <v>284</v>
+      </c>
+      <c r="C61" s="44">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E61" s="20">
         <v>43272</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="47">
+        <v>284</v>
+      </c>
+      <c r="C62" s="44">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E62" s="20">
         <v>43272</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" s="47">
+        <v>284</v>
+      </c>
+      <c r="C63" s="44">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="E63" s="20">
         <v>43273</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="47">
+        <v>284</v>
+      </c>
+      <c r="C64" s="44">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E64" s="20">
         <v>43273</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="47">
+        <v>284</v>
+      </c>
+      <c r="C65" s="44">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E65" s="20">
         <v>43273</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="47">
+        <v>284</v>
+      </c>
+      <c r="C66" s="44">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="E66" s="20">
         <v>43273</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" s="47">
+        <v>284</v>
+      </c>
+      <c r="C67" s="44">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E67" s="20">
         <v>43273</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C68" s="47">
+        <v>284</v>
+      </c>
+      <c r="C68" s="44">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E68" s="20">
         <v>43274</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="18" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" s="47">
+        <v>326</v>
+      </c>
+      <c r="C69" s="44">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E69" s="20">
         <v>43302</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C70" s="47">
+        <v>327</v>
+      </c>
+      <c r="C70" s="44">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E70" s="20">
         <v>43316</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C71" s="47">
+        <v>327</v>
+      </c>
+      <c r="C71" s="44">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E71" s="20">
         <v>43316</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C72" s="47">
+        <v>327</v>
+      </c>
+      <c r="C72" s="44">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E72" s="20">
         <v>43316</v>
       </c>
-      <c r="M72" s="65" t="s">
-        <v>348</v>
+      <c r="F72" s="20"/>
+      <c r="N72" s="62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="44">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" s="20">
+        <v>43324</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E37" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:S1" xr:uid="{4C44102C-4EBF-4E17-98DC-DF0464836BB2}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M72" r:id="rId1" xr:uid="{A53A96C7-EECB-4FAF-9BD5-898557832E27}"/>
+    <hyperlink ref="N72" r:id="rId1" xr:uid="{A53A96C7-EECB-4FAF-9BD5-898557832E27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8472,7 +8577,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8482,295 +8587,295 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E17" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E21" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C23" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E23" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E24" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E25" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -9048,10 +9153,10 @@
         <v>116</v>
       </c>
       <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/版本更新说明/客户版本更新记录.xlsx
+++ b/版本更新说明/客户版本更新记录.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\hy_document\版本更新说明\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4494EC60-E44A-40D0-8D34-68090ABC51D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="853" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="853" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2018日历" sheetId="7" state="hidden" r:id="rId1"/>
@@ -27,8 +21,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">脚本记录!$A$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="336">
   <si>
     <t>已解决</t>
   </si>
@@ -1030,9 +1024,6 @@
     <t>(中餐厅) - 宜兴市吴记饭店</t>
   </si>
   <si>
-    <t>(中餐厅) - 宜兴市悦港琴湾大酒店</t>
-  </si>
-  <si>
     <t>松江</t>
   </si>
   <si>
@@ -1281,13 +1272,21 @@
   </si>
   <si>
     <t>单独创建一个版本更新（预定拆台需求）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(中餐厅) - 宜兴市悦港琴湾大酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(中餐厅) - 宜兴市悦港琴湾大酒店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaa;@"/>
@@ -1759,6 +1758,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1771,15 +1791,6 @@
     <xf numFmtId="177" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1790,18 +1801,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1865,7 +1864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1917,7 +1916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2111,86 +2110,86 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AJ98"/>
   <sheetViews>
     <sheetView topLeftCell="H58" workbookViewId="0">
       <selection activeCell="AB65" sqref="AB65:AI102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="8" width="6.77734375" customWidth="1"/>
-    <col min="9" max="9" width="1.88671875" customWidth="1"/>
-    <col min="10" max="16" width="6.77734375" customWidth="1"/>
-    <col min="17" max="17" width="1.88671875" customWidth="1"/>
-    <col min="18" max="24" width="6.77734375" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="8" width="6.75" customWidth="1"/>
+    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="10" max="16" width="6.75" customWidth="1"/>
+    <col min="17" max="17" width="1.875" customWidth="1"/>
+    <col min="18" max="24" width="6.75" customWidth="1"/>
+    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="28.8" thickBot="1">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="2:30" ht="27.75" thickBot="1">
+      <c r="B1" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-    </row>
-    <row r="2" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B2" s="64" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+    </row>
+    <row r="2" spans="2:30" ht="16.5" thickBot="1">
+      <c r="B2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-      <c r="J2" s="67" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="J2" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="R2" s="67" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="R2" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="69"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="AA2" t="s">
         <v>219</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="16.2" thickBot="1">
+    <row r="3" spans="2:30" ht="16.5" thickBot="1">
       <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
@@ -2272,8 +2271,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:30" ht="18" thickBot="1">
-      <c r="B4" s="70"/>
+    <row r="4" spans="2:30" ht="18.75" thickBot="1">
+      <c r="B4" s="74"/>
       <c r="C4" s="46">
         <v>1</v>
       </c>
@@ -2292,10 +2291,10 @@
       <c r="H4" s="46">
         <v>6</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
       <c r="N4" s="48">
         <v>1</v>
       </c>
@@ -2305,10 +2304,10 @@
       <c r="P4" s="46">
         <v>3</v>
       </c>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
       <c r="V4" s="48">
         <v>1</v>
       </c>
@@ -2325,8 +2324,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="14.4" thickBot="1">
-      <c r="B5" s="71"/>
+    <row r="5" spans="2:30" ht="14.25" thickBot="1">
+      <c r="B5" s="75"/>
       <c r="C5" s="30" t="s">
         <v>122</v>
       </c>
@@ -2345,10 +2344,10 @@
       <c r="H5" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="33" t="s">
         <v>123</v>
       </c>
@@ -2358,10 +2357,10 @@
       <c r="P5" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
       <c r="V5" s="33" t="s">
         <v>128</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="18" thickBot="1">
+    <row r="6" spans="2:30" ht="18.75" thickBot="1">
       <c r="B6" s="46">
         <v>7</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="14.4" thickBot="1">
+    <row r="7" spans="2:30" ht="14.25" thickBot="1">
       <c r="B7" s="35" t="s">
         <v>130</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="18" thickBot="1">
+    <row r="8" spans="2:30" ht="18.75" thickBot="1">
       <c r="B8" s="46">
         <v>14</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:30" ht="14.4" thickBot="1">
+    <row r="9" spans="2:30" ht="14.25" thickBot="1">
       <c r="B9" s="35" t="s">
         <v>142</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="18" thickBot="1">
+    <row r="10" spans="2:30" ht="18.75" thickBot="1">
       <c r="B10" s="46">
         <v>21</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="14.4" thickBot="1">
+    <row r="11" spans="2:30" ht="14.25" thickBot="1">
       <c r="B11" s="35" t="s">
         <v>154</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="2:30" ht="18" thickBot="1">
+    <row r="12" spans="2:30" ht="18.75" thickBot="1">
       <c r="B12" s="49">
         <v>28</v>
       </c>
@@ -2823,9 +2822,9 @@
       <c r="E12" s="47">
         <v>31</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="50"/>
       <c r="J12" s="49">
         <v>25</v>
@@ -2871,7 +2870,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="15.6" thickBot="1">
+    <row r="13" spans="2:30" ht="15.75" thickBot="1">
       <c r="B13" s="52" t="s">
         <v>164</v>
       </c>
@@ -2884,9 +2883,9 @@
       <c r="E13" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="50"/>
       <c r="J13" s="54" t="s">
         <v>159</v>
@@ -2935,37 +2934,37 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="2:30" ht="14.4" thickBot="1"/>
-    <row r="15" spans="2:30" ht="16.2" thickBot="1">
-      <c r="B15" s="67" t="s">
+    <row r="14" spans="2:30" ht="14.25" thickBot="1"/>
+    <row r="15" spans="2:30" ht="16.5" thickBot="1">
+      <c r="B15" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="J15" s="67" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="J15" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69"/>
-      <c r="R15" s="67" t="s">
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="R15" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="69"/>
-    </row>
-    <row r="16" spans="2:30" ht="16.2" thickBot="1">
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="67"/>
+    </row>
+    <row r="16" spans="2:30" ht="16.5" thickBot="1">
       <c r="B16" s="28" t="s">
         <v>23</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="18" thickBot="1">
+    <row r="17" spans="2:24" ht="18.75" thickBot="1">
       <c r="B17" s="49">
         <v>1</v>
       </c>
@@ -3053,8 +3052,8 @@
         <v>7</v>
       </c>
       <c r="I17" s="50"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="46">
         <v>1</v>
       </c>
@@ -3071,11 +3070,11 @@
         <v>5</v>
       </c>
       <c r="Q17" s="50"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
       <c r="W17" s="48">
         <v>1</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:24" ht="14.4" thickBot="1">
+    <row r="18" spans="2:24" ht="14.25" thickBot="1">
       <c r="B18" s="54" t="s">
         <v>123</v>
       </c>
@@ -3106,8 +3105,8 @@
         <v>131</v>
       </c>
       <c r="I18" s="50"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="57" t="s">
         <v>171</v>
       </c>
@@ -3124,11 +3123,11 @@
         <v>173</v>
       </c>
       <c r="Q18" s="50"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
       <c r="W18" s="57" t="s">
         <v>174</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="2:24" ht="18" thickBot="1">
+    <row r="19" spans="2:24" ht="18.75" thickBot="1">
       <c r="B19" s="49">
         <v>8</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:24" ht="14.4" thickBot="1">
+    <row r="20" spans="2:24" ht="14.25" thickBot="1">
       <c r="B20" s="54" t="s">
         <v>132</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:24" ht="18" thickBot="1">
+    <row r="21" spans="2:24" ht="18.75" thickBot="1">
       <c r="B21" s="49">
         <v>15</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:24" ht="14.4" thickBot="1">
+    <row r="22" spans="2:24" ht="14.25" thickBot="1">
       <c r="B22" s="54" t="s">
         <v>144</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="18" thickBot="1">
+    <row r="23" spans="2:24" ht="18.75" thickBot="1">
       <c r="B23" s="49">
         <v>22</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="14.4" thickBot="1">
+    <row r="24" spans="2:24" ht="14.25" thickBot="1">
       <c r="B24" s="54" t="s">
         <v>156</v>
       </c>
@@ -3538,17 +3537,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="18" thickBot="1">
+    <row r="25" spans="2:24" ht="18.75" thickBot="1">
       <c r="B25" s="49">
         <v>29</v>
       </c>
       <c r="C25" s="48">
         <v>30</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="51"/>
       <c r="I25" s="50"/>
       <c r="J25" s="49">
@@ -3591,17 +3590,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="15.6" thickBot="1">
+    <row r="26" spans="2:24" ht="15.75" thickBot="1">
       <c r="B26" s="54" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="51"/>
       <c r="I26" s="50"/>
       <c r="J26" s="54" t="s">
@@ -3644,39 +3643,39 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="14.4" thickBot="1">
+    <row r="27" spans="2:24" ht="15" thickBot="1">
       <c r="B27" s="39"/>
     </row>
-    <row r="28" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B28" s="67" t="s">
+    <row r="28" spans="2:24" ht="16.5" thickBot="1">
+      <c r="B28" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="J28" s="67" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
+      <c r="J28" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69"/>
-      <c r="R28" s="67" t="s">
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="R28" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="69"/>
-    </row>
-    <row r="29" spans="2:24" ht="16.2" thickBot="1">
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
+    </row>
+    <row r="29" spans="2:24" ht="16.5" thickBot="1">
       <c r="B29" s="28" t="s">
         <v>23</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:24" ht="18" thickBot="1">
+    <row r="30" spans="2:24" ht="18.75" thickBot="1">
       <c r="B30" s="49">
         <v>1</v>
       </c>
@@ -3764,9 +3763,9 @@
         <v>7</v>
       </c>
       <c r="I30" s="50"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="48">
         <v>1</v>
       </c>
@@ -3780,17 +3779,17 @@
         <v>4</v>
       </c>
       <c r="Q30" s="50"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
       <c r="X30" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:24" ht="14.4" thickBot="1">
+    <row r="31" spans="2:24" ht="14.25" thickBot="1">
       <c r="B31" s="59" t="s">
         <v>188</v>
       </c>
@@ -3813,9 +3812,9 @@
         <v>189</v>
       </c>
       <c r="I31" s="50"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
       <c r="M31" s="57" t="s">
         <v>190</v>
       </c>
@@ -3829,17 +3828,17 @@
         <v>132</v>
       </c>
       <c r="Q31" s="50"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
       <c r="X31" s="55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:24" ht="18" thickBot="1">
+    <row r="32" spans="2:24" ht="18.75" thickBot="1">
       <c r="B32" s="49">
         <v>8</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="14.4" thickBot="1">
+    <row r="33" spans="2:24" ht="14.25" thickBot="1">
       <c r="B33" s="54" t="s">
         <v>134</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="18" thickBot="1">
+    <row r="34" spans="2:24" ht="18.75" thickBot="1">
       <c r="B34" s="49">
         <v>15</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="14.4" thickBot="1">
+    <row r="35" spans="2:24" ht="14.25" thickBot="1">
       <c r="B35" s="54" t="s">
         <v>147</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:24" ht="18" thickBot="1">
+    <row r="36" spans="2:24" ht="18.75" thickBot="1">
       <c r="B36" s="49">
         <v>22</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:24" ht="14.4" thickBot="1">
+    <row r="37" spans="2:24" ht="14.25" thickBot="1">
       <c r="B37" s="54" t="s">
         <v>159</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="2:24" ht="18" thickBot="1">
+    <row r="38" spans="2:24" ht="18.75" thickBot="1">
       <c r="B38" s="49">
         <v>29</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:24" ht="15.6" thickBot="1">
+    <row r="39" spans="2:24" ht="15.75" thickBot="1">
       <c r="B39" s="54" t="s">
         <v>124</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="2:24" ht="18" thickBot="1">
+    <row r="40" spans="2:24" ht="18.75" thickBot="1">
       <c r="B40" s="61"/>
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
@@ -4382,7 +4381,7 @@
       <c r="W40" s="51"/>
       <c r="X40" s="51"/>
     </row>
-    <row r="41" spans="2:24" ht="15.6" thickBot="1">
+    <row r="41" spans="2:24" ht="15.75" thickBot="1">
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
@@ -4409,37 +4408,37 @@
       <c r="W41" s="51"/>
       <c r="X41" s="51"/>
     </row>
-    <row r="42" spans="2:24" ht="14.4" thickBot="1"/>
-    <row r="43" spans="2:24" ht="16.2" thickBot="1">
-      <c r="B43" s="67" t="s">
+    <row r="42" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="43" spans="2:24" ht="16.5" thickBot="1">
+      <c r="B43" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69"/>
-      <c r="J43" s="67" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="67"/>
+      <c r="J43" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="69"/>
-      <c r="R43" s="67" t="s">
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="67"/>
+      <c r="R43" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="69"/>
-    </row>
-    <row r="44" spans="2:24" ht="16.2" thickBot="1">
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="67"/>
+    </row>
+    <row r="44" spans="2:24" ht="16.5" thickBot="1">
       <c r="B44" s="28" t="s">
         <v>23</v>
       </c>
@@ -4504,8 +4503,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:24" ht="18" thickBot="1">
-      <c r="B45" s="76"/>
+    <row r="45" spans="2:24" ht="18.75" thickBot="1">
+      <c r="B45" s="63"/>
       <c r="C45" s="46">
         <v>1</v>
       </c>
@@ -4525,10 +4524,10 @@
         <v>6</v>
       </c>
       <c r="I45" s="50"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
       <c r="N45" s="48">
         <v>1</v>
       </c>
@@ -4539,18 +4538,18 @@
         <v>3</v>
       </c>
       <c r="Q45" s="50"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="76"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
       <c r="X45" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:24" ht="14.4" thickBot="1">
-      <c r="B46" s="77"/>
+    <row r="46" spans="2:24" ht="14.25" thickBot="1">
+      <c r="B46" s="64"/>
       <c r="C46" s="57" t="s">
         <v>205</v>
       </c>
@@ -4570,10 +4569,10 @@
         <v>136</v>
       </c>
       <c r="I46" s="50"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
       <c r="N46" s="55" t="s">
         <v>133</v>
       </c>
@@ -4584,17 +4583,17 @@
         <v>135</v>
       </c>
       <c r="Q46" s="50"/>
-      <c r="R46" s="77"/>
-      <c r="S46" s="77"/>
-      <c r="T46" s="77"/>
-      <c r="U46" s="77"/>
-      <c r="V46" s="77"/>
-      <c r="W46" s="77"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
       <c r="X46" s="55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="2:24" ht="18" thickBot="1">
+    <row r="47" spans="2:24" ht="18.75" thickBot="1">
       <c r="B47" s="49">
         <v>7</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:24" ht="14.4" thickBot="1">
+    <row r="48" spans="2:24" ht="14.25" thickBot="1">
       <c r="B48" s="54" t="s">
         <v>142</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="2:24" ht="18" thickBot="1">
+    <row r="49" spans="2:24" ht="18.75" thickBot="1">
       <c r="B49" s="49">
         <v>14</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:24" ht="14.4" thickBot="1">
+    <row r="50" spans="2:24" ht="14.25" thickBot="1">
       <c r="B50" s="54" t="s">
         <v>155</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="2:24" ht="18" thickBot="1">
+    <row r="51" spans="2:24" ht="18.75" thickBot="1">
       <c r="B51" s="49">
         <v>21</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:24" ht="14.4" thickBot="1">
+    <row r="52" spans="2:24" ht="14.25" thickBot="1">
       <c r="B52" s="54" t="s">
         <v>165</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="2:24" ht="18" thickBot="1">
+    <row r="53" spans="2:24" ht="18.75" thickBot="1">
       <c r="B53" s="49">
         <v>28</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:24" ht="15.6" thickBot="1">
+    <row r="54" spans="2:24" ht="15.75" thickBot="1">
       <c r="B54" s="54" t="s">
         <v>127</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="2:24" ht="18" thickBot="1">
+    <row r="55" spans="2:24" ht="18.75" thickBot="1">
       <c r="B55" s="50"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
@@ -5143,7 +5142,7 @@
       <c r="W55" s="51"/>
       <c r="X55" s="51"/>
     </row>
-    <row r="56" spans="2:24" ht="15.6" thickBot="1">
+    <row r="56" spans="2:24" ht="15.75" thickBot="1">
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
@@ -5172,7 +5171,7 @@
       <c r="W56" s="51"/>
       <c r="X56" s="51"/>
     </row>
-    <row r="67" spans="2:36">
+    <row r="67" spans="2:36" ht="14.25">
       <c r="B67" s="39"/>
       <c r="AC67" s="50"/>
       <c r="AD67" s="50"/>
@@ -5183,7 +5182,7 @@
       <c r="AI67" s="50"/>
       <c r="AJ67" s="50"/>
     </row>
-    <row r="68" spans="2:36">
+    <row r="68" spans="2:36" ht="14.25">
       <c r="B68" s="39"/>
       <c r="AC68" s="50"/>
       <c r="AD68" s="50"/>
@@ -5314,7 +5313,7 @@
       <c r="AI80" s="50"/>
       <c r="AJ80" s="50"/>
     </row>
-    <row r="81" spans="2:36">
+    <row r="81" spans="2:36" ht="14.25">
       <c r="B81" s="39"/>
       <c r="AC81" s="50"/>
       <c r="AD81" s="50"/>
@@ -5325,7 +5324,7 @@
       <c r="AI81" s="50"/>
       <c r="AJ81" s="50"/>
     </row>
-    <row r="82" spans="2:36">
+    <row r="82" spans="2:36" ht="14.25">
       <c r="B82" s="39"/>
       <c r="AC82" s="50"/>
       <c r="AD82" s="50"/>
@@ -5498,6 +5497,48 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="R28:X28"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="J28:P28"/>
     <mergeCell ref="T45:T46"/>
     <mergeCell ref="U45:U46"/>
     <mergeCell ref="V45:V46"/>
@@ -5512,48 +5553,6 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="R45:R46"/>
     <mergeCell ref="S45:S46"/>
-    <mergeCell ref="R28:X28"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="R15:X15"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="B1:X1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5562,18 +5561,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="32" width="5.33203125" style="2" customWidth="1"/>
-    <col min="33" max="35" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="32" width="5.375" style="2" customWidth="1"/>
+    <col min="33" max="35" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -6536,21 +6535,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AB65" sqref="AB65:AI102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999">
+    <row r="1" spans="1:6" ht="17.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999">
+    <row r="2" spans="1:6" ht="17.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.799999999999997">
+    <row r="3" spans="1:6" ht="34.5">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -6597,7 +6596,7 @@
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="17.399999999999999">
+    <row r="6" spans="1:6" ht="17.25">
       <c r="A6" s="1">
         <v>43080</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999">
+    <row r="7" spans="1:6" ht="17.25">
       <c r="A7" s="1">
         <v>43085</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.399999999999999">
+    <row r="8" spans="1:6" ht="17.25">
       <c r="A8" s="1">
         <v>43091</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.399999999999999">
+    <row r="9" spans="1:6" ht="17.25">
       <c r="A9" s="1">
         <v>43092</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.399999999999999">
+    <row r="10" spans="1:6" ht="17.25">
       <c r="A10" s="1">
         <v>43098</v>
       </c>
@@ -6677,22 +6676,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="AB65" sqref="AB65:AI102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="185.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="185.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6716,7 +6715,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="165.6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="96.6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -6766,30 +6765,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="11.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="43"/>
-    <col min="4" max="4" width="26.77734375" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="17"/>
-    <col min="10" max="10" width="8.88671875" style="17" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="17"/>
-    <col min="13" max="13" width="8.88671875" style="43"/>
-    <col min="14" max="14" width="26.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="17"/>
+    <col min="2" max="2" width="11.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="43"/>
+    <col min="4" max="4" width="26.75" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="17"/>
+    <col min="10" max="10" width="8.875" style="17" customWidth="1"/>
+    <col min="11" max="12" width="8.875" style="17"/>
+    <col min="13" max="13" width="8.875" style="43"/>
+    <col min="14" max="14" width="26.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4">
+    <row r="1" spans="1:19">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -7641,7 +7640,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" ht="14.4">
+    <row r="36" spans="1:19">
       <c r="A36" s="18" t="s">
         <v>41</v>
       </c>
@@ -7670,7 +7669,7 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19" ht="14.4">
+    <row r="37" spans="1:19">
       <c r="A37" s="18" t="s">
         <v>41</v>
       </c>
@@ -7699,7 +7698,7 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19" ht="14.4">
+    <row r="38" spans="1:19">
       <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
@@ -7728,7 +7727,7 @@
       <c r="R38"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" ht="14.4">
+    <row r="39" spans="1:19">
       <c r="A39" s="18" t="s">
         <v>41</v>
       </c>
@@ -7755,7 +7754,7 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19" ht="14.4">
+    <row r="40" spans="1:19">
       <c r="A40" s="18" t="s">
         <v>41</v>
       </c>
@@ -7784,7 +7783,7 @@
       <c r="R40"/>
       <c r="S40"/>
     </row>
-    <row r="41" spans="1:19" ht="14.4">
+    <row r="41" spans="1:19">
       <c r="A41" s="18" t="s">
         <v>41</v>
       </c>
@@ -7813,7 +7812,7 @@
       <c r="R41"/>
       <c r="S41"/>
     </row>
-    <row r="42" spans="1:19" ht="14.4">
+    <row r="42" spans="1:19">
       <c r="A42" s="18" t="s">
         <v>41</v>
       </c>
@@ -7842,7 +7841,7 @@
       <c r="R42"/>
       <c r="S42"/>
     </row>
-    <row r="43" spans="1:19" ht="14.4">
+    <row r="43" spans="1:19">
       <c r="A43" s="18" t="s">
         <v>41</v>
       </c>
@@ -7871,7 +7870,7 @@
       <c r="R43"/>
       <c r="S43"/>
     </row>
-    <row r="44" spans="1:19" ht="14.4">
+    <row r="44" spans="1:19">
       <c r="A44" s="18" t="s">
         <v>41</v>
       </c>
@@ -7900,7 +7899,7 @@
       <c r="R44"/>
       <c r="S44"/>
     </row>
-    <row r="45" spans="1:19" ht="14.4">
+    <row r="45" spans="1:19">
       <c r="A45" s="18" t="s">
         <v>41</v>
       </c>
@@ -7929,7 +7928,7 @@
       <c r="R45"/>
       <c r="S45"/>
     </row>
-    <row r="46" spans="1:19" ht="14.4">
+    <row r="46" spans="1:19">
       <c r="A46" s="18" t="s">
         <v>41</v>
       </c>
@@ -7958,7 +7957,7 @@
       <c r="R46"/>
       <c r="S46"/>
     </row>
-    <row r="47" spans="1:19" ht="14.4">
+    <row r="47" spans="1:19">
       <c r="A47" s="18" t="s">
         <v>41</v>
       </c>
@@ -7987,7 +7986,7 @@
       <c r="R47"/>
       <c r="S47"/>
     </row>
-    <row r="48" spans="1:19" ht="14.4">
+    <row r="48" spans="1:19">
       <c r="A48" s="18" t="s">
         <v>41</v>
       </c>
@@ -8016,7 +8015,7 @@
       <c r="R48"/>
       <c r="S48"/>
     </row>
-    <row r="49" spans="1:19" ht="14.4">
+    <row r="49" spans="1:19">
       <c r="A49" s="18" t="s">
         <v>41</v>
       </c>
@@ -8045,7 +8044,7 @@
       <c r="R49"/>
       <c r="S49"/>
     </row>
-    <row r="50" spans="1:19" ht="14.4">
+    <row r="50" spans="1:19">
       <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
@@ -8209,13 +8208,13 @@
         <v>41</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C56" s="44">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E56" s="20">
         <v>43271</v>
@@ -8235,7 +8234,7 @@
         <v>41</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C57" s="44">
         <v>1</v>
@@ -8261,13 +8260,13 @@
         <v>41</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58" s="44">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E58" s="20">
         <v>43272</v>
@@ -8287,13 +8286,13 @@
         <v>41</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C59" s="44">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E59" s="20">
         <v>43272</v>
@@ -8305,13 +8304,13 @@
         <v>41</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C60" s="44">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E60" s="20">
         <v>43272</v>
@@ -8323,13 +8322,13 @@
         <v>41</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C61" s="44">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E61" s="20">
         <v>43272</v>
@@ -8341,13 +8340,13 @@
         <v>41</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" s="44">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E62" s="20">
         <v>43272</v>
@@ -8359,13 +8358,13 @@
         <v>41</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="44">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E63" s="20">
         <v>43273</v>
@@ -8377,13 +8376,13 @@
         <v>41</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C64" s="44">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E64" s="20">
         <v>43273</v>
@@ -8395,13 +8394,13 @@
         <v>41</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C65" s="44">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E65" s="20">
         <v>43273</v>
@@ -8413,13 +8412,13 @@
         <v>41</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C66" s="44">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E66" s="20">
         <v>43273</v>
@@ -8431,13 +8430,13 @@
         <v>41</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C67" s="44">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E67" s="20">
         <v>43273</v>
@@ -8449,13 +8448,13 @@
         <v>41</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C68" s="44">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E68" s="20">
         <v>43274</v>
@@ -8464,16 +8463,16 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C69" s="44">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E69" s="20">
         <v>43302</v>
@@ -8485,13 +8484,13 @@
         <v>41</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C70" s="44">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E70" s="20">
         <v>43316</v>
@@ -8503,13 +8502,13 @@
         <v>41</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C71" s="44">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E71" s="20">
         <v>43316</v>
@@ -8521,20 +8520,20 @@
         <v>41</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C72" s="44">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E72" s="20">
         <v>43316</v>
       </c>
       <c r="F72" s="20"/>
       <c r="N72" s="62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8542,29 +8541,49 @@
         <v>41</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C73" s="44">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E73" s="20">
         <v>43324</v>
       </c>
       <c r="F73" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="G73" s="17" t="s">
-        <v>334</v>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="44">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" s="20">
+        <v>43326</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{4C44102C-4EBF-4E17-98DC-DF0464836BB2}"/>
+  <autoFilter ref="A1:S1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N72" r:id="rId1" xr:uid="{A53A96C7-EECB-4FAF-9BD5-898557832E27}"/>
+    <hyperlink ref="N72" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8572,17 +8591,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8593,18 +8612,18 @@
         <v>254</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
         <v>298</v>
-      </c>
-      <c r="E2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8615,7 +8634,7 @@
         <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8623,10 +8642,10 @@
         <v>255</v>
       </c>
       <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s">
         <v>301</v>
-      </c>
-      <c r="E4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8634,10 +8653,10 @@
         <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8648,7 +8667,7 @@
         <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8656,32 +8675,32 @@
         <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
         <v>260</v>
       </c>
-      <c r="B8" t="s">
-        <v>261</v>
-      </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
         <v>262</v>
       </c>
-      <c r="B9" t="s">
-        <v>263</v>
-      </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8689,10 +8708,10 @@
         <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8700,10 +8719,10 @@
         <v>255</v>
       </c>
       <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" t="s">
         <v>309</v>
-      </c>
-      <c r="E11" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8711,10 +8730,10 @@
         <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8722,10 +8741,10 @@
         <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1">
@@ -8733,153 +8752,153 @@
         <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1">
       <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
         <v>268</v>
       </c>
-      <c r="B15" t="s">
-        <v>269</v>
-      </c>
       <c r="C15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" t="s">
         <v>272</v>
       </c>
-      <c r="B18" t="s">
-        <v>273</v>
-      </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" t="s">
         <v>274</v>
       </c>
-      <c r="B19" t="s">
-        <v>275</v>
-      </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" t="s">
         <v>279</v>
       </c>
-      <c r="B23" t="s">
-        <v>280</v>
-      </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C25" xr:uid="{7BA59746-83DA-4586-8223-11C5489EFECE}">
+  <autoFilter ref="A1:C25">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -8891,19 +8910,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="143.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="143.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9013,7 +9032,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="55.2">
+    <row r="9" spans="1:4" ht="54">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -9038,7 +9057,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="96.6">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -9049,7 +9068,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="165.6">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -9060,7 +9079,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="82.8">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -9071,7 +9090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.4">
+    <row r="14" spans="1:4" ht="40.5">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -9093,7 +9112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27.6">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -9104,7 +9123,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="41.4">
+    <row r="17" spans="1:3" ht="40.5">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -9115,7 +9134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="55.2">
+    <row r="18" spans="1:3" ht="54">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -9126,7 +9145,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27.6">
+    <row r="19" spans="1:3" ht="27">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -9137,7 +9156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="207">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -9148,7 +9167,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="289.8">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -9160,7 +9179,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C20" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:C20"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
